--- a/database/sidis/expdata/3446.xlsx
+++ b/database/sidis/expdata/3446.xlsx
@@ -565,13 +565,13 @@
       </c>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="n">
-        <v>0.000423843053083667</v>
+        <v>0.0007749144439528385</v>
       </c>
       <c r="P2" t="n">
         <v>0.000787</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0001352059339336898</v>
+        <v>0.0002471977076209555</v>
       </c>
     </row>
     <row r="3">
@@ -624,13 +624,13 @@
       </c>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="n">
-        <v>0.000243285280544072</v>
+        <v>0.0004883993115465925</v>
       </c>
       <c r="P3" t="n">
         <v>0.00108</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.014402122904916e-05</v>
+        <v>4.043946299605786e-05</v>
       </c>
     </row>
     <row r="4">
@@ -683,13 +683,13 @@
       </c>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="n">
-        <v>0.0001144877415336228</v>
+        <v>0.0003094833107963923</v>
       </c>
       <c r="P4" t="n">
         <v>0.00137</v>
       </c>
       <c r="Q4" t="n">
-        <v>9.067429129462923e-05</v>
+        <v>0.0002451107821507427</v>
       </c>
     </row>
     <row r="5">
@@ -742,13 +742,13 @@
       </c>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="n">
-        <v>0.0007199014144120273</v>
+        <v>0.001016297165587526</v>
       </c>
       <c r="P5" t="n">
         <v>0.000548</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.000158378311170646</v>
+        <v>0.0002235853764292557</v>
       </c>
     </row>
     <row r="6">
@@ -801,13 +801,13 @@
       </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="n">
-        <v>0.0004294396611521319</v>
+        <v>0.0007301792228951096</v>
       </c>
       <c r="P6" t="n">
         <v>0.000743</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.001764997007335263</v>
+        <v>0.003001036606098901</v>
       </c>
     </row>
     <row r="7">
@@ -860,13 +860,13 @@
       </c>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="n">
-        <v>0.0001996115764100944</v>
+        <v>0.0004784115298207901</v>
       </c>
       <c r="P7" t="n">
         <v>0.000942</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0001397281034870661</v>
+        <v>0.0003348880708745531</v>
       </c>
     </row>
     <row r="8">
@@ -919,13 +919,13 @@
       </c>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="n">
-        <v>0.001319923181046681</v>
+        <v>0.001256985984889523</v>
       </c>
       <c r="P8" t="n">
         <v>0.000719</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.005068505015219255</v>
+        <v>0.004826826181975766</v>
       </c>
     </row>
     <row r="9">
@@ -978,13 +978,13 @@
       </c>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="n">
-        <v>0.0008200421189349975</v>
+        <v>0.00106201199205251</v>
       </c>
       <c r="P9" t="n">
         <v>0.000958</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.002099307824473593</v>
+        <v>0.002718750699654427</v>
       </c>
     </row>
     <row r="10">
@@ -1037,13 +1037,13 @@
       </c>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="n">
-        <v>0.0003803553498116627</v>
+        <v>0.0007329169550766532</v>
       </c>
       <c r="P10" t="n">
         <v>0.00121</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.0001426332561793735</v>
+        <v>0.0002748438581537449</v>
       </c>
     </row>
     <row r="11">
@@ -1096,13 +1096,13 @@
       </c>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="n">
-        <v>0.0002818823613841146</v>
+        <v>0.0005621067882543367</v>
       </c>
       <c r="P11" t="n">
         <v>0.00145</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.0001192362388654805</v>
+        <v>0.0002377711714315844</v>
       </c>
     </row>
     <row r="12">
@@ -1155,13 +1155,13 @@
       </c>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="n">
-        <v>0.002559128106083327</v>
+        <v>0.001758573330025131</v>
       </c>
       <c r="P12" t="n">
         <v>0.00104</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.004401700342463322</v>
+        <v>0.003024746127643226</v>
       </c>
     </row>
     <row r="13">
@@ -1214,13 +1214,13 @@
       </c>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="n">
-        <v>0.001628805944685735</v>
+        <v>0.001583206470143746</v>
       </c>
       <c r="P13" t="n">
         <v>0.0014</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.002720105927625178</v>
+        <v>0.002643954805140056</v>
       </c>
     </row>
     <row r="14">
@@ -1273,13 +1273,13 @@
       </c>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="n">
-        <v>0.0007420119290770815</v>
+        <v>0.001108371135877158</v>
       </c>
       <c r="P14" t="n">
         <v>0.0018</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.0002255716264394328</v>
+        <v>0.0003369448253066561</v>
       </c>
     </row>
     <row r="15">
@@ -1332,13 +1332,13 @@
       </c>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="n">
-        <v>0.0005207024314488383</v>
+        <v>0.0008642343033121096</v>
       </c>
       <c r="P15" t="n">
         <v>0.00219</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.0002358782014463238</v>
+        <v>0.0003914981394003857</v>
       </c>
     </row>
     <row r="16">
@@ -1391,13 +1391,13 @@
       </c>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="n">
-        <v>0.001286087401637586</v>
+        <v>0.001970594161497439</v>
       </c>
       <c r="P16" t="n">
         <v>0.000678</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.0005954584669582025</v>
+        <v>0.0009123850967733143</v>
       </c>
     </row>
     <row r="17">
@@ -1450,13 +1450,13 @@
       </c>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="n">
-        <v>0.0007595473784457311</v>
+        <v>0.001282299566068217</v>
       </c>
       <c r="P17" t="n">
         <v>0.000906</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.0009342432754882493</v>
+        <v>0.001577228466263906</v>
       </c>
     </row>
     <row r="18">
@@ -1509,13 +1509,13 @@
       </c>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="n">
-        <v>0.0003481478781552777</v>
+        <v>0.0007446140594867627</v>
       </c>
       <c r="P18" t="n">
         <v>0.00116</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.806071897931538e-05</v>
+        <v>6.001589319463308e-05</v>
       </c>
     </row>
     <row r="19">
@@ -1568,13 +1568,13 @@
       </c>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="n">
-        <v>0.0002615413290473245</v>
+        <v>0.0005337376795531837</v>
       </c>
       <c r="P19" t="n">
         <v>0.00143</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.0008055472934657595</v>
+        <v>0.001643912053023806</v>
       </c>
     </row>
     <row r="20">
@@ -1627,13 +1627,13 @@
       </c>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="n">
-        <v>0.002259916456952374</v>
+        <v>0.00276670191579549</v>
       </c>
       <c r="P20" t="n">
         <v>0.000486</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.00888147167582283</v>
+        <v>0.01087313852907628</v>
       </c>
     </row>
     <row r="21">
@@ -1686,13 +1686,13 @@
       </c>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="n">
-        <v>0.00134860460375096</v>
+        <v>0.00196830051819108</v>
       </c>
       <c r="P21" t="n">
         <v>0.000643</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.001297357628808424</v>
+        <v>0.001893505098499819</v>
       </c>
     </row>
     <row r="22">
@@ -1745,13 +1745,13 @@
       </c>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="n">
-        <v>0.0006222565996705412</v>
+        <v>0.001186383420215286</v>
       </c>
       <c r="P22" t="n">
         <v>0.0008050000000000001</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.0005488303209094174</v>
+        <v>0.001046390176629883</v>
       </c>
     </row>
     <row r="23">
@@ -1804,13 +1804,13 @@
       </c>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="n">
-        <v>0.0004578426441015864</v>
+        <v>0.0008627285436905532</v>
       </c>
       <c r="P23" t="n">
         <v>0.000972</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.0008927931559980935</v>
+        <v>0.001682320660196579</v>
       </c>
     </row>
     <row r="24">
@@ -1863,13 +1863,13 @@
       </c>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="n">
-        <v>0.004373486565857745</v>
+        <v>0.003818048402614319</v>
       </c>
       <c r="P24" t="n">
         <v>0.00065</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.03774318906335234</v>
+        <v>0.03294975771456158</v>
       </c>
     </row>
     <row r="25">
@@ -1922,13 +1922,13 @@
       </c>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="n">
-        <v>0.002675892552011378</v>
+        <v>0.003045357368763255</v>
       </c>
       <c r="P25" t="n">
         <v>0.000841</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.003719490647295816</v>
+        <v>0.004233046742580925</v>
       </c>
     </row>
     <row r="26">
@@ -1981,13 +1981,13 @@
       </c>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="n">
-        <v>0.001203444406088498</v>
+        <v>0.001875886069643112</v>
       </c>
       <c r="P26" t="n">
         <v>0.00105</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.001444133287306198</v>
+        <v>0.002251063283571734</v>
       </c>
     </row>
     <row r="27">
@@ -2040,13 +2040,13 @@
       </c>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="n">
-        <v>0.0008561778195914047</v>
+        <v>0.001392963525277387</v>
       </c>
       <c r="P27" t="n">
         <v>0.00128</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.001746602751966466</v>
+        <v>0.00284164559156587</v>
       </c>
     </row>
     <row r="28">
@@ -2099,13 +2099,13 @@
       </c>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="n">
-        <v>0.009003941177365946</v>
+        <v>0.005826649498503423</v>
       </c>
       <c r="P28" t="n">
         <v>0.000973</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.1035453235397084</v>
+        <v>0.06700646923278937</v>
       </c>
     </row>
     <row r="29">
@@ -2158,13 +2158,13 @@
       </c>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="n">
-        <v>0.005537698489273761</v>
+        <v>0.004850349459740926</v>
       </c>
       <c r="P29" t="n">
         <v>0.00125</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.004070208389616214</v>
+        <v>0.003565006852909581</v>
       </c>
     </row>
     <row r="30">
@@ -2217,13 +2217,13 @@
       </c>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="n">
-        <v>0.002421448444162174</v>
+        <v>0.002980802130239271</v>
       </c>
       <c r="P30" t="n">
         <v>0.00157</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.001561834246484602</v>
+        <v>0.00192261737400433</v>
       </c>
     </row>
     <row r="31">
@@ -2276,13 +2276,13 @@
       </c>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="n">
-        <v>0.001620608339480595</v>
+        <v>0.002223401223489963</v>
       </c>
       <c r="P31" t="n">
         <v>0.00191</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.006822761109213306</v>
+        <v>0.009360519150892746</v>
       </c>
     </row>
     <row r="32">
@@ -2335,13 +2335,13 @@
       </c>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="n">
-        <v>0.003864952784473277</v>
+        <v>0.005293318885729007</v>
       </c>
       <c r="P32" t="n">
         <v>0.000626</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.001217460127109082</v>
+        <v>0.001667395449004637</v>
       </c>
     </row>
     <row r="33">
@@ -2394,13 +2394,13 @@
       </c>
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="n">
-        <v>0.002246346776440685</v>
+        <v>0.003379884734859683</v>
       </c>
       <c r="P33" t="n">
         <v>0.000816</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.009457119928815283</v>
+        <v>0.01422931473375927</v>
       </c>
     </row>
     <row r="34">
@@ -2453,13 +2453,13 @@
       </c>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="n">
-        <v>0.00102913113356104</v>
+        <v>0.001861524903694349</v>
       </c>
       <c r="P34" t="n">
         <v>0.00103</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.00729653973694777</v>
+        <v>0.01319821156719293</v>
       </c>
     </row>
     <row r="35">
@@ -2512,13 +2512,13 @@
       </c>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="n">
-        <v>0.0007426084514709827</v>
+        <v>0.001318055514437725</v>
       </c>
       <c r="P35" t="n">
         <v>0.00127</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.001492642987456675</v>
+        <v>0.002649291584019827</v>
       </c>
     </row>
     <row r="36">
@@ -2571,13 +2571,13 @@
       </c>
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="n">
-        <v>0.006917094029642542</v>
+        <v>0.007754073504823569</v>
       </c>
       <c r="P36" t="n">
         <v>0.000451</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.003569220519295552</v>
+        <v>0.004001101928488962</v>
       </c>
     </row>
     <row r="37">
@@ -2630,13 +2630,13 @@
       </c>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="n">
-        <v>0.004050364380059271</v>
+        <v>0.005319145976015262</v>
       </c>
       <c r="P37" t="n">
         <v>0.000581</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.02187196765232007</v>
+        <v>0.02872338827048241</v>
       </c>
     </row>
     <row r="38">
@@ -2689,13 +2689,13 @@
       </c>
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="n">
-        <v>0.001822711742756831</v>
+        <v>0.002968162799901129</v>
       </c>
       <c r="P38" t="n">
         <v>0.00071</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.001600340910140498</v>
+        <v>0.002606046938313191</v>
       </c>
     </row>
     <row r="39">
@@ -2748,13 +2748,13 @@
       </c>
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="n">
-        <v>0.001308661754294928</v>
+        <v>0.002152158238311077</v>
       </c>
       <c r="P39" t="n">
         <v>0.000855</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.0005954410982041923</v>
+        <v>0.0009792319984315402</v>
       </c>
     </row>
     <row r="40">
@@ -2807,13 +2807,13 @@
       </c>
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="n">
-        <v>0.01395307936331033</v>
+        <v>0.01152579282505987</v>
       </c>
       <c r="P40" t="n">
         <v>0.000612</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.0125577714269793</v>
+        <v>0.01037321354255388</v>
       </c>
     </row>
     <row r="41">
@@ -2866,13 +2866,13 @@
       </c>
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="n">
-        <v>0.008364977657556413</v>
+        <v>0.008690912021824999</v>
       </c>
       <c r="P41" t="n">
         <v>0.000766</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.08256232948008178</v>
+        <v>0.08577930165541273</v>
       </c>
     </row>
     <row r="42">
@@ -2925,13 +2925,13 @@
       </c>
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="n">
-        <v>0.003649338231686555</v>
+        <v>0.004902027050135319</v>
       </c>
       <c r="P42" t="n">
         <v>0.000932</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.03521611393577526</v>
+        <v>0.04730456103380584</v>
       </c>
     </row>
     <row r="43">
@@ -2984,13 +2984,13 @@
       </c>
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="n">
-        <v>0.002489911580196516</v>
+        <v>0.003566598875049701</v>
       </c>
       <c r="P43" t="n">
         <v>0.00109</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.001098051006866664</v>
+        <v>0.001572870103896918</v>
       </c>
     </row>
     <row r="44">
@@ -3043,13 +3043,13 @@
       </c>
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="n">
-        <v>0.03117192453795948</v>
+        <v>0.01895222768910509</v>
       </c>
       <c r="P44" t="n">
         <v>0.000955</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.01970065630799039</v>
+        <v>0.01197780789951442</v>
       </c>
     </row>
     <row r="45">
@@ -3102,13 +3102,13 @@
       </c>
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="n">
-        <v>0.01830507847269301</v>
+        <v>0.01474273661426843</v>
       </c>
       <c r="P45" t="n">
         <v>0.00117</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.006589828250169481</v>
+        <v>0.005307385181136636</v>
       </c>
     </row>
     <row r="46">
@@ -3161,13 +3161,13 @@
       </c>
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="n">
-        <v>0.007584703520366605</v>
+        <v>0.008150800930425018</v>
       </c>
       <c r="P46" t="n">
         <v>0.00141</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.01372831337186355</v>
+        <v>0.01475294968406928</v>
       </c>
     </row>
     <row r="47">
@@ -3220,13 +3220,13 @@
       </c>
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="n">
-        <v>0.004816156031172763</v>
+        <v>0.005878462049867404</v>
       </c>
       <c r="P47" t="n">
         <v>0.00166</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.02822267434267239</v>
+        <v>0.03444778761222299</v>
       </c>
     </row>
     <row r="48">
@@ -3279,13 +3279,13 @@
       </c>
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="n">
-        <v>0.01050040013270051</v>
+        <v>0.0134250582595726</v>
       </c>
       <c r="P48" t="n">
         <v>0.000612</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.01092041613800853</v>
+        <v>0.0139620605899555</v>
       </c>
     </row>
     <row r="49">
@@ -3338,13 +3338,13 @@
       </c>
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="n">
-        <v>0.005997933582060338</v>
+        <v>0.008328739849595727</v>
       </c>
       <c r="P49" t="n">
         <v>0.000775</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.009116859044731713</v>
+        <v>0.01265968457138551</v>
       </c>
     </row>
     <row r="50">
@@ -3397,13 +3397,13 @@
       </c>
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="n">
-        <v>0.002689365413713425</v>
+        <v>0.004346969858371645</v>
       </c>
       <c r="P50" t="n">
         <v>0.000946</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.0005002219669506972</v>
+        <v>0.0008085363936571259</v>
       </c>
     </row>
     <row r="51">
@@ -3456,13 +3456,13 @@
       </c>
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="n">
-        <v>0.001892684989687307</v>
+        <v>0.003087571970910173</v>
       </c>
       <c r="P51" t="n">
         <v>0.00113</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.001093971924039263</v>
+        <v>0.00178461659918608</v>
       </c>
     </row>
     <row r="52">
@@ -3515,13 +3515,13 @@
       </c>
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="n">
-        <v>0.01911760480241693</v>
+        <v>0.02031507146193759</v>
       </c>
       <c r="P52" t="n">
         <v>0.000446</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.007991158807410276</v>
+        <v>0.008491699871089914</v>
       </c>
     </row>
     <row r="53">
@@ -3574,13 +3574,13 @@
       </c>
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="n">
-        <v>0.01097599316402264</v>
+        <v>0.01340738303086919</v>
       </c>
       <c r="P53" t="n">
         <v>0.000548</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.003391581887682995</v>
+        <v>0.004142881356538579</v>
       </c>
     </row>
     <row r="54">
@@ -3633,13 +3633,13 @@
       </c>
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="n">
-        <v>0.00491933866282152</v>
+        <v>0.007176518257357487</v>
       </c>
       <c r="P54" t="n">
         <v>0.000655</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.0002612168829958227</v>
+        <v>0.0003810731194656826</v>
       </c>
     </row>
     <row r="55">
@@ -3692,13 +3692,13 @@
       </c>
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="n">
-        <v>0.003387881710299182</v>
+        <v>0.00514000606960538</v>
       </c>
       <c r="P55" t="n">
         <v>0.00077</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.003726669881329101</v>
+        <v>0.005654006676565918</v>
       </c>
     </row>
     <row r="56">
@@ -3751,13 +3751,13 @@
       </c>
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="n">
-        <v>0.04067233547855985</v>
+        <v>0.03215172459296877</v>
       </c>
       <c r="P56" t="n">
         <v>0.000618</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.01224237297904651</v>
+        <v>0.0096776691024836</v>
       </c>
     </row>
     <row r="57">
@@ -3810,13 +3810,13 @@
       </c>
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="n">
-        <v>0.02328132889077295</v>
+        <v>0.0226999192228255</v>
       </c>
       <c r="P57" t="n">
         <v>0.000746</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.002514383520203479</v>
+        <v>0.002451591276065154</v>
       </c>
     </row>
     <row r="58">
@@ -3869,13 +3869,13 @@
       </c>
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="n">
-        <v>0.009937814031904409</v>
+        <v>0.01209802367792445</v>
       </c>
       <c r="P58" t="n">
         <v>0.00086</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.0004770150735314117</v>
+        <v>0.0005807051365403737</v>
       </c>
     </row>
     <row r="59">
@@ -3928,13 +3928,13 @@
       </c>
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="n">
-        <v>0.006529260807627005</v>
+        <v>0.00869188164004903</v>
       </c>
       <c r="P59" t="n">
         <v>0.00099</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.0003643327530655869</v>
+        <v>0.0004850069955147359</v>
       </c>
     </row>
     <row r="60">
@@ -3987,13 +3987,13 @@
       </c>
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="n">
-        <v>0.09594343690947663</v>
+        <v>0.05526910221077258</v>
       </c>
       <c r="P60" t="n">
         <v>0.000992</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.02273859454754596</v>
+        <v>0.0130987772239531</v>
       </c>
     </row>
     <row r="61">
@@ -4046,13 +4046,13 @@
       </c>
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="n">
-        <v>0.05392991132957561</v>
+        <v>0.04060532221744587</v>
       </c>
       <c r="P61" t="n">
         <v>0.00117</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.108399121772447</v>
+        <v>0.08161669765706618</v>
       </c>
     </row>
     <row r="62">
@@ -4105,13 +4105,13 @@
       </c>
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="n">
-        <v>0.02146631415583778</v>
+        <v>0.02098634597508929</v>
       </c>
       <c r="P62" t="n">
         <v>0.00135</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.00130085863784377</v>
+        <v>0.001271772566090411</v>
       </c>
     </row>
     <row r="63">
@@ -4164,13 +4164,13 @@
       </c>
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="n">
-        <v>0.01287896265060385</v>
+        <v>0.01470435828366504</v>
       </c>
       <c r="P63" t="n">
         <v>0.00152</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.003232619625301566</v>
+        <v>0.003690793929199926</v>
       </c>
     </row>
     <row r="64">
@@ -4223,13 +4223,13 @@
       </c>
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="n">
-        <v>0.02157743018632199</v>
+        <v>0.02667249100362809</v>
       </c>
       <c r="P64" t="n">
         <v>0.0009</v>
       </c>
       <c r="Q64" t="n">
-        <v>0.001717563442831231</v>
+        <v>0.002123130283888796</v>
       </c>
     </row>
     <row r="65">
@@ -4282,13 +4282,13 @@
       </c>
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="n">
-        <v>0.01217501015753654</v>
+        <v>0.01607115709251418</v>
       </c>
       <c r="P65" t="n">
         <v>0.00113</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.004821304022384469</v>
+        <v>0.006364178208635616</v>
       </c>
     </row>
     <row r="66">
@@ -4341,13 +4341,13 @@
       </c>
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="n">
-        <v>0.005414185432186865</v>
+        <v>0.008134353640374719</v>
       </c>
       <c r="P66" t="n">
         <v>0.00135</v>
       </c>
       <c r="Q66" t="n">
-        <v>0.0002160259987442559</v>
+        <v>0.0003245607102509513</v>
       </c>
     </row>
     <row r="67">
@@ -4400,13 +4400,13 @@
       </c>
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="n">
-        <v>0.00375658842589939</v>
+        <v>0.005832630392461563</v>
       </c>
       <c r="P67" t="n">
         <v>0.00155</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.0005334355564777134</v>
+        <v>0.0008282335157295419</v>
       </c>
     </row>
     <row r="68">
@@ -4459,13 +4459,13 @@
       </c>
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="n">
-        <v>0.0392743227094408</v>
+        <v>0.04079683077209251</v>
       </c>
       <c r="P68" t="n">
         <v>0.000676</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.01319617243037211</v>
+        <v>0.01370773513942308</v>
       </c>
     </row>
     <row r="69">
@@ -4518,13 +4518,13 @@
       </c>
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="n">
-        <v>0.02247887858353104</v>
+        <v>0.02622693647455399</v>
       </c>
       <c r="P69" t="n">
         <v>0.0008140000000000001</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.007642818718400553</v>
+        <v>0.008917158401348357</v>
       </c>
     </row>
     <row r="70">
@@ -4577,13 +4577,13 @@
       </c>
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="n">
-        <v>0.009976752094458738</v>
+        <v>0.01359834587196206</v>
       </c>
       <c r="P70" t="n">
         <v>0.000942</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.002564025288275896</v>
+        <v>0.003494774889094248</v>
       </c>
     </row>
     <row r="71">
@@ -4636,13 +4636,13 @@
       </c>
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="n">
-        <v>0.006756280840987382</v>
+        <v>0.009797446997944924</v>
       </c>
       <c r="P71" t="n">
         <v>0.00107</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.002040396813978189</v>
+        <v>0.002958828993379367</v>
       </c>
     </row>
     <row r="72">
@@ -4695,13 +4695,13 @@
       </c>
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="n">
-        <v>0.08595609765534518</v>
+        <v>0.06694217094182066</v>
       </c>
       <c r="P72" t="n">
         <v>0.000973</v>
       </c>
       <c r="Q72" t="n">
-        <v>0.03670325369883239</v>
+        <v>0.02858430699215742</v>
       </c>
     </row>
     <row r="73">
@@ -4754,13 +4754,13 @@
       </c>
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="n">
-        <v>0.04906036596276657</v>
+        <v>0.04604015428963039</v>
       </c>
       <c r="P73" t="n">
         <v>0.00114</v>
       </c>
       <c r="Q73" t="n">
-        <v>0.01015549575429268</v>
+        <v>0.009530311937953491</v>
       </c>
     </row>
     <row r="74">
@@ -4813,13 +4813,13 @@
       </c>
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="n">
-        <v>0.02051542781252353</v>
+        <v>0.02353233213926199</v>
       </c>
       <c r="P74" t="n">
         <v>0.00125</v>
       </c>
       <c r="Q74" t="n">
-        <v>0.007529162007196134</v>
+        <v>0.008636365895109152</v>
       </c>
     </row>
     <row r="75">
@@ -4872,13 +4872,13 @@
       </c>
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="n">
-        <v>0.013156912888444</v>
+        <v>0.01687087180983515</v>
       </c>
       <c r="P75" t="n">
         <v>0.00135</v>
       </c>
       <c r="Q75" t="n">
-        <v>0.004525978033624736</v>
+        <v>0.005803579902583293</v>
       </c>
     </row>
     <row r="76">
@@ -4931,13 +4931,13 @@
       </c>
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="n">
-        <v>0.2131069947091704</v>
+        <v>0.1207523728314491</v>
       </c>
       <c r="P76" t="n">
         <v>0.00161</v>
       </c>
       <c r="Q76" t="n">
-        <v>0.07352191317466378</v>
+        <v>0.04165956862684994</v>
       </c>
     </row>
     <row r="77">
@@ -4990,13 +4990,13 @@
       </c>
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="n">
-        <v>0.1165608974465332</v>
+        <v>0.08512146340299014</v>
       </c>
       <c r="P77" t="n">
         <v>0.00181</v>
       </c>
       <c r="Q77" t="n">
-        <v>0.0270421282075957</v>
+        <v>0.01974817950949371</v>
       </c>
     </row>
     <row r="78">
@@ -5049,13 +5049,13 @@
       </c>
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="n">
-        <v>0.04512609499716222</v>
+        <v>0.04206767816332432</v>
       </c>
       <c r="P78" t="n">
         <v>0.00195</v>
       </c>
       <c r="Q78" t="n">
-        <v>0.001317681973917137</v>
+        <v>0.00122837620236907</v>
       </c>
     </row>
     <row r="79">
@@ -5108,13 +5108,13 @@
       </c>
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="n">
-        <v>0.0263874560038032</v>
+        <v>0.02921775199379237</v>
       </c>
       <c r="P79" t="n">
         <v>0.00207</v>
       </c>
       <c r="Q79" t="n">
-        <v>0.007019063297011651</v>
+        <v>0.00777192203034877</v>
       </c>
     </row>
     <row r="80">
@@ -5167,13 +5167,13 @@
       </c>
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="n">
-        <v>0.03322054941125031</v>
+        <v>0.04156762332639061</v>
       </c>
       <c r="P80" t="n">
         <v>0.006</v>
       </c>
       <c r="Q80" t="n">
-        <v>0.1986588854792769</v>
+        <v>0.2485743874918159</v>
       </c>
     </row>
     <row r="81">
@@ -5226,13 +5226,13 @@
       </c>
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="n">
-        <v>0.01891147002511068</v>
+        <v>0.02478422721360075</v>
       </c>
       <c r="P81" t="n">
         <v>0.00759</v>
       </c>
       <c r="Q81" t="n">
-        <v>0.03517533424670587</v>
+        <v>0.0460986626172974</v>
       </c>
     </row>
     <row r="82">
@@ -5285,13 +5285,13 @@
       </c>
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="n">
-        <v>0.008498472266270953</v>
+        <v>0.01251608362232151</v>
       </c>
       <c r="P82" t="n">
         <v>0.00925</v>
       </c>
       <c r="Q82" t="n">
-        <v>0.007835591429501819</v>
+        <v>0.01153982909978043</v>
       </c>
     </row>
     <row r="83">
@@ -5344,13 +5344,13 @@
       </c>
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="n">
-        <v>0.006015859546313743</v>
+        <v>0.009280236328265518</v>
       </c>
       <c r="P83" t="n">
         <v>0.0103</v>
       </c>
       <c r="Q83" t="n">
-        <v>0.01564123482041573</v>
+        <v>0.02412861445349035</v>
       </c>
     </row>
     <row r="84">
@@ -5403,13 +5403,13 @@
       </c>
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="n">
-        <v>0.05997107519777167</v>
+        <v>0.06384085098789508</v>
       </c>
       <c r="P84" t="n">
         <v>0.00476</v>
       </c>
       <c r="Q84" t="n">
-        <v>0.1667195890498052</v>
+        <v>0.1774775657463483</v>
       </c>
     </row>
     <row r="85">
@@ -5462,13 +5462,13 @@
       </c>
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="n">
-        <v>0.0350720731614463</v>
+        <v>0.04092679326711975</v>
       </c>
       <c r="P85" t="n">
         <v>0.00559</v>
       </c>
       <c r="Q85" t="n">
-        <v>0.03401991096660291</v>
+        <v>0.03969898946910615</v>
       </c>
     </row>
     <row r="86">
@@ -5521,13 +5521,13 @@
       </c>
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="n">
-        <v>0.01571355152610014</v>
+        <v>0.0211210161431515</v>
       </c>
       <c r="P86" t="n">
         <v>0.0063</v>
       </c>
       <c r="Q86" t="n">
-        <v>0.01255512766935401</v>
+        <v>0.01687569189837805</v>
       </c>
     </row>
     <row r="87">
@@ -5580,13 +5580,13 @@
       </c>
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="n">
-        <v>0.01077081496093911</v>
+        <v>0.01556750491636843</v>
       </c>
       <c r="P87" t="n">
         <v>0.00696</v>
       </c>
       <c r="Q87" t="n">
-        <v>0.003349723452852062</v>
+        <v>0.004841494028990583</v>
       </c>
     </row>
     <row r="88">
@@ -5639,13 +5639,13 @@
       </c>
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="n">
-        <v>0.136819225703712</v>
+        <v>0.1093693825788731</v>
       </c>
       <c r="P88" t="n">
         <v>0.00729</v>
       </c>
       <c r="Q88" t="n">
-        <v>0.005294904034733653</v>
+        <v>0.00423259510580239</v>
       </c>
     </row>
     <row r="89">
@@ -5698,13 +5698,13 @@
       </c>
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="n">
-        <v>0.07712220773055842</v>
+        <v>0.07319526855187933</v>
       </c>
       <c r="P89" t="n">
         <v>0.008659999999999999</v>
       </c>
       <c r="Q89" t="n">
-        <v>0.00925466492766701</v>
+        <v>0.008783432226225518</v>
       </c>
     </row>
     <row r="90">
@@ -5757,13 +5757,13 @@
       </c>
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="n">
-        <v>0.03272523810313552</v>
+        <v>0.03728047971427032</v>
       </c>
       <c r="P90" t="n">
         <v>0.0089</v>
       </c>
       <c r="Q90" t="n">
-        <v>0.02794735334007773</v>
+        <v>0.03183752967598685</v>
       </c>
     </row>
     <row r="91">
@@ -5816,13 +5816,13 @@
       </c>
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="n">
-        <v>0.02088678126670159</v>
+        <v>0.02690997781193297</v>
       </c>
       <c r="P91" t="n">
         <v>0.009379999999999999</v>
       </c>
       <c r="Q91" t="n">
-        <v>0.1372261529222294</v>
+        <v>0.1767985542243996</v>
       </c>
     </row>
     <row r="92">
@@ -5875,13 +5875,13 @@
       </c>
       <c r="N92" t="inlineStr"/>
       <c r="O92" t="n">
-        <v>0.3460815650796206</v>
+        <v>0.2034153930428892</v>
       </c>
       <c r="P92" t="n">
         <v>0.0138</v>
       </c>
       <c r="Q92" t="n">
-        <v>1.384326260318482</v>
+        <v>0.8136615721715569</v>
       </c>
     </row>
     <row r="93">
@@ -5934,13 +5934,13 @@
       </c>
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="n">
-        <v>0.1859013434949021</v>
+        <v>0.1388500885991915</v>
       </c>
       <c r="P93" t="n">
         <v>0.016</v>
       </c>
       <c r="Q93" t="n">
-        <v>0.1529968056963044</v>
+        <v>0.1142736229171346</v>
       </c>
     </row>
     <row r="94">
@@ -5993,13 +5993,13 @@
       </c>
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="n">
-        <v>0.0710763198245549</v>
+        <v>0.06700366117840496</v>
       </c>
       <c r="P94" t="n">
         <v>0.0152</v>
       </c>
       <c r="Q94" t="n">
-        <v>0.05160140819262685</v>
+        <v>0.048644658015522</v>
       </c>
     </row>
     <row r="95">
@@ -6052,13 +6052,13 @@
       </c>
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="n">
-        <v>0.04255234180456934</v>
+        <v>0.04765079027864846</v>
       </c>
       <c r="P95" t="n">
         <v>0.0161</v>
       </c>
       <c r="Q95" t="n">
-        <v>0.009701933931441808</v>
+        <v>0.01086438018353185</v>
       </c>
     </row>
     <row r="96">
@@ -6111,13 +6111,13 @@
       </c>
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="n">
-        <v>0.0001716607336561385</v>
+        <v>0.0003254107799663938</v>
       </c>
       <c r="P96" t="n">
         <v>0.016</v>
       </c>
       <c r="Q96" t="n">
-        <v>0.0001469415880096546</v>
+        <v>0.0002785516276512331</v>
       </c>
     </row>
     <row r="97">
@@ -6170,13 +6170,13 @@
       </c>
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="n">
-        <v>0.0001076477659751478</v>
+        <v>0.00021804150993583</v>
       </c>
       <c r="P97" t="n">
         <v>0.0283</v>
       </c>
       <c r="Q97" t="n">
-        <v>4.295145862408396e-05</v>
+        <v>8.699856246439617e-05</v>
       </c>
     </row>
     <row r="98">
@@ -6229,13 +6229,13 @@
       </c>
       <c r="N98" t="inlineStr"/>
       <c r="O98" t="n">
-        <v>5.110481792063823e-05</v>
+        <v>0.0001452647347990539</v>
       </c>
       <c r="P98" t="n">
         <v>0.0386</v>
       </c>
       <c r="Q98" t="n">
-        <v>7.001360055127439e-06</v>
+        <v>1.990126866747039e-05</v>
       </c>
     </row>
     <row r="99">
@@ -6288,13 +6288,13 @@
       </c>
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="n">
-        <v>4.055750285954248e-05</v>
+        <v>0.0001106577754497378</v>
       </c>
       <c r="P99" t="n">
         <v>0.051</v>
       </c>
       <c r="Q99" t="n">
-        <v>0.0001143721580639098</v>
+        <v>0.0003120549267682606</v>
       </c>
     </row>
     <row r="100">
@@ -6347,13 +6347,13 @@
       </c>
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="n">
-        <v>0.0002825176270036487</v>
+        <v>0.0004113185661737441</v>
       </c>
       <c r="P100" t="n">
         <v>0.0103</v>
       </c>
       <c r="Q100" t="n">
-        <v>0.000151994483327963</v>
+        <v>0.0002212893886014744</v>
       </c>
     </row>
     <row r="101">
@@ -6406,13 +6406,13 @@
       </c>
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="n">
-        <v>0.0001805995648586463</v>
+        <v>0.0003123407379821821</v>
       </c>
       <c r="P101" t="n">
         <v>0.0159</v>
       </c>
       <c r="Q101" t="n">
-        <v>0.0001435766540626238</v>
+        <v>0.0002483108866958348</v>
       </c>
     </row>
     <row r="102">
@@ -6465,13 +6465,13 @@
       </c>
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="n">
-        <v>9.154956215015291e-05</v>
+        <v>0.0002261048119365698</v>
       </c>
       <c r="P102" t="n">
         <v>0.0211</v>
       </c>
       <c r="Q102" t="n">
-        <v>0.001391553344682324</v>
+        <v>0.00343679314143586</v>
       </c>
     </row>
     <row r="103">
@@ -6524,13 +6524,13 @@
       </c>
       <c r="N103" t="inlineStr"/>
       <c r="O103" t="n">
-        <v>7.135038965748237e-05</v>
+        <v>0.0001742834559724578</v>
       </c>
       <c r="P103" t="n">
         <v>0.0357</v>
       </c>
       <c r="Q103" t="n">
-        <v>7.491790914035649e-05</v>
+        <v>0.0001829976287710807</v>
       </c>
     </row>
     <row r="104">
@@ -6583,13 +6583,13 @@
       </c>
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="n">
-        <v>0.0005164848362842666</v>
+        <v>0.0004889246552664023</v>
       </c>
       <c r="P104" t="n">
         <v>0.0145</v>
       </c>
       <c r="Q104" t="n">
-        <v>7.075842257094452e-05</v>
+        <v>6.698267777149712e-05</v>
       </c>
     </row>
     <row r="105">
@@ -6642,13 +6642,13 @@
       </c>
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="n">
-        <v>0.0003413580253838728</v>
+        <v>0.0004412285217496174</v>
       </c>
       <c r="P105" t="n">
         <v>0.0187</v>
       </c>
       <c r="Q105" t="n">
-        <v>7.646419768598751e-05</v>
+        <v>9.88351888719143e-05</v>
       </c>
     </row>
     <row r="106">
@@ -6701,13 +6701,13 @@
       </c>
       <c r="N106" t="inlineStr"/>
       <c r="O106" t="n">
-        <v>0.0001630148858162903</v>
+        <v>0.0003285391134797519</v>
       </c>
       <c r="P106" t="n">
         <v>0.0248</v>
       </c>
       <c r="Q106" t="n">
-        <v>6.471690966906724e-05</v>
+        <v>0.0001304300280514615</v>
       </c>
     </row>
     <row r="107">
@@ -6760,13 +6760,13 @@
       </c>
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="n">
-        <v>0.000130810366003606</v>
+        <v>0.000270120099373329</v>
       </c>
       <c r="P107" t="n">
         <v>0.035</v>
       </c>
       <c r="Q107" t="n">
-        <v>0.0001347346769837142</v>
+        <v>0.0002782237023545289</v>
       </c>
     </row>
     <row r="108">
@@ -6819,13 +6819,13 @@
       </c>
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="n">
-        <v>0.0009352121436708225</v>
+        <v>0.0006417933928502074</v>
       </c>
       <c r="P108" t="n">
         <v>0.0202</v>
       </c>
       <c r="Q108" t="n">
-        <v>0.0004442257682436407</v>
+        <v>0.0003048518616038485</v>
       </c>
     </row>
     <row r="109">
@@ -6878,13 +6878,13 @@
       </c>
       <c r="N109" t="inlineStr"/>
       <c r="O109" t="n">
-        <v>0.0006451790035378627</v>
+        <v>0.0006272140358606566</v>
       </c>
       <c r="P109" t="n">
         <v>0.031</v>
       </c>
       <c r="Q109" t="n">
-        <v>2.509746323762286e-05</v>
+        <v>2.439862599497954e-05</v>
       </c>
     </row>
     <row r="110">
@@ -6937,13 +6937,13 @@
       </c>
       <c r="N110" t="inlineStr"/>
       <c r="O110" t="n">
-        <v>0.0003045470973309616</v>
+        <v>0.0004780601213600389</v>
       </c>
       <c r="P110" t="n">
         <v>0.0425</v>
       </c>
       <c r="Q110" t="n">
-        <v>0.0005238210074092539</v>
+        <v>0.000822263408739267</v>
       </c>
     </row>
     <row r="111">
@@ -6996,13 +6996,13 @@
       </c>
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="n">
-        <v>0.000230536675099363</v>
+        <v>0.0004025610219330671</v>
       </c>
       <c r="P111" t="n">
         <v>0.0573</v>
       </c>
       <c r="Q111" t="n">
-        <v>0.001118102874231911</v>
+        <v>0.001952420956375375</v>
       </c>
     </row>
     <row r="112">
@@ -7055,13 +7055,13 @@
       </c>
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="n">
-        <v>0.0003628840267063936</v>
+        <v>0.0005748444691116826</v>
       </c>
       <c r="P112" t="n">
         <v>0.0019</v>
       </c>
       <c r="Q112" t="n">
-        <v>0.000194505838314627</v>
+        <v>0.0003081166354438619</v>
       </c>
     </row>
     <row r="113">
@@ -7114,13 +7114,13 @@
       </c>
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="n">
-        <v>0.0002237619015398425</v>
+        <v>0.0003856751331627777</v>
       </c>
       <c r="P113" t="n">
         <v>0.00272</v>
       </c>
       <c r="Q113" t="n">
-        <v>0.00021302133026593</v>
+        <v>0.0003671627267709644</v>
       </c>
     </row>
     <row r="114">
@@ -7173,13 +7173,13 @@
       </c>
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="n">
-        <v>0.000109555022467336</v>
+        <v>0.0002479345734620546</v>
       </c>
       <c r="P114" t="n">
         <v>0.00388</v>
       </c>
       <c r="Q114" t="n">
-        <v>0.0001676191843750242</v>
+        <v>0.0003793398973969436</v>
       </c>
     </row>
     <row r="115">
@@ -7232,13 +7232,13 @@
       </c>
       <c r="N115" t="inlineStr"/>
       <c r="O115" t="n">
-        <v>8.726671017323053e-05</v>
+        <v>0.0001879120506283566</v>
       </c>
       <c r="P115" t="n">
         <v>0.00514</v>
       </c>
       <c r="Q115" t="n">
-        <v>1.317727323615781e-05</v>
+        <v>2.837471964488185e-05</v>
       </c>
     </row>
     <row r="116">
@@ -7291,13 +7291,13 @@
       </c>
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="n">
-        <v>0.0006172043893262229</v>
+        <v>0.000764002150739653</v>
       </c>
       <c r="P116" t="n">
         <v>0.00131</v>
       </c>
       <c r="Q116" t="n">
-        <v>0.0008826022767364988</v>
+        <v>0.001092523075557704</v>
       </c>
     </row>
     <row r="117">
@@ -7350,13 +7350,13 @@
       </c>
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="n">
-        <v>0.0003947539734467657</v>
+        <v>0.0005801679859872514</v>
       </c>
       <c r="P117" t="n">
         <v>0.00183</v>
       </c>
       <c r="Q117" t="n">
-        <v>0.0004776523078705865</v>
+        <v>0.0007020032630445742</v>
       </c>
     </row>
     <row r="118">
@@ -7409,13 +7409,13 @@
       </c>
       <c r="N118" t="inlineStr"/>
       <c r="O118" t="n">
-        <v>0.00019446130691963</v>
+        <v>0.0003896021805893637</v>
       </c>
       <c r="P118" t="n">
         <v>0.0025</v>
       </c>
       <c r="Q118" t="n">
-        <v>2.391874075111449e-05</v>
+        <v>4.792106821249173e-05</v>
       </c>
     </row>
     <row r="119">
@@ -7468,13 +7468,13 @@
       </c>
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="n">
-        <v>0.0001531675383527602</v>
+        <v>0.000302446719813024</v>
       </c>
       <c r="P119" t="n">
         <v>0.00328</v>
       </c>
       <c r="Q119" t="n">
-        <v>0.0001173263343782143</v>
+        <v>0.0002316741873767764</v>
       </c>
     </row>
     <row r="120">
@@ -7527,13 +7527,13 @@
       </c>
       <c r="N120" t="inlineStr"/>
       <c r="O120" t="n">
-        <v>0.001131286916824629</v>
+        <v>0.0009788157803041671</v>
       </c>
       <c r="P120" t="n">
         <v>0.00164</v>
       </c>
       <c r="Q120" t="n">
-        <v>0.01346231431021309</v>
+        <v>0.01164790778561959</v>
       </c>
     </row>
     <row r="121">
@@ -7586,13 +7586,13 @@
       </c>
       <c r="N121" t="inlineStr"/>
       <c r="O121" t="n">
-        <v>0.000751709358588565</v>
+        <v>0.0008546133630088746</v>
       </c>
       <c r="P121" t="n">
         <v>0.00225</v>
       </c>
       <c r="Q121" t="n">
-        <v>1.721414431167814e-05</v>
+        <v>1.957064601290323e-05</v>
       </c>
     </row>
     <row r="122">
@@ -7645,13 +7645,13 @@
       </c>
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="n">
-        <v>0.000365944786542668</v>
+        <v>0.0005944741143073312</v>
       </c>
       <c r="P122" t="n">
         <v>0.00299</v>
       </c>
       <c r="Q122" t="n">
-        <v>0.0004354742959857748</v>
+        <v>0.0007074241960257241</v>
       </c>
     </row>
     <row r="123">
@@ -7704,13 +7704,13 @@
       </c>
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="n">
-        <v>0.0002817469621865728</v>
+        <v>0.0004767381225316044</v>
       </c>
       <c r="P123" t="n">
         <v>0.00401</v>
       </c>
       <c r="Q123" t="n">
-        <v>3.606361115988132e-05</v>
+        <v>6.102247968404537e-05</v>
       </c>
     </row>
     <row r="124">
@@ -7763,13 +7763,13 @@
       </c>
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="n">
-        <v>0.002142304310397967</v>
+        <v>0.001403719886808083</v>
       </c>
       <c r="P124" t="n">
         <v>0.00234</v>
       </c>
       <c r="Q124" t="n">
-        <v>0.001223255761237239</v>
+        <v>0.0008015240553674153</v>
       </c>
     </row>
     <row r="125">
@@ -7822,13 +7822,13 @@
       </c>
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="n">
-        <v>0.001477803447524184</v>
+        <v>0.001307869563901247</v>
       </c>
       <c r="P125" t="n">
         <v>0.00317</v>
       </c>
       <c r="Q125" t="n">
-        <v>0.003177277412176996</v>
+        <v>0.002811919562387681</v>
       </c>
     </row>
     <row r="126">
@@ -7881,13 +7881,13 @@
       </c>
       <c r="N126" t="inlineStr"/>
       <c r="O126" t="n">
-        <v>0.0007044896876939812</v>
+        <v>0.0009048933677369366</v>
       </c>
       <c r="P126" t="n">
         <v>0.00425</v>
       </c>
       <c r="Q126" t="n">
-        <v>0.006312227601738072</v>
+        <v>0.008107844574922952</v>
       </c>
     </row>
     <row r="127">
@@ -7940,13 +7940,13 @@
       </c>
       <c r="N127" t="inlineStr"/>
       <c r="O127" t="n">
-        <v>0.0005265013748643942</v>
+        <v>0.000743563550825686</v>
       </c>
       <c r="P127" t="n">
         <v>0.00546</v>
       </c>
       <c r="Q127" t="n">
-        <v>7.160418698155761e-05</v>
+        <v>0.0001011246429122933</v>
       </c>
     </row>
     <row r="128">
@@ -7999,13 +7999,13 @@
       </c>
       <c r="N128" t="inlineStr"/>
       <c r="O128" t="n">
-        <v>0.001000423397892466</v>
+        <v>0.001370594588447839</v>
       </c>
       <c r="P128" t="n">
         <v>0.0012</v>
       </c>
       <c r="Q128" t="n">
-        <v>0.01020431865850316</v>
+        <v>0.01398006480216795</v>
       </c>
     </row>
     <row r="129">
@@ -8058,13 +8058,13 @@
       </c>
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="n">
-        <v>0.0006239990802034074</v>
+        <v>0.0009297319920447658</v>
       </c>
       <c r="P129" t="n">
         <v>0.00173</v>
       </c>
       <c r="Q129" t="n">
-        <v>0.0006489590434115437</v>
+        <v>0.0009669212717265565</v>
       </c>
     </row>
     <row r="130">
@@ -8117,13 +8117,13 @@
       </c>
       <c r="N130" t="inlineStr"/>
       <c r="O130" t="n">
-        <v>0.0003009833224266432</v>
+        <v>0.0005559013559085685</v>
       </c>
       <c r="P130" t="n">
         <v>0.00239</v>
       </c>
       <c r="Q130" t="n">
-        <v>0.0001625309941103873</v>
+        <v>0.000300186732190627</v>
       </c>
     </row>
     <row r="131">
@@ -8176,13 +8176,13 @@
       </c>
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="n">
-        <v>0.000238801421480331</v>
+        <v>0.0004267671873177086</v>
       </c>
       <c r="P131" t="n">
         <v>0.00317</v>
       </c>
       <c r="Q131" t="n">
-        <v>0.0001382660230371116</v>
+        <v>0.0002470982014569533</v>
       </c>
     </row>
     <row r="132">
@@ -8235,13 +8235,13 @@
       </c>
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="n">
-        <v>0.001723197191458117</v>
+        <v>0.001909321468626491</v>
       </c>
       <c r="P132" t="n">
         <v>0.000867</v>
       </c>
       <c r="Q132" t="n">
-        <v>0.0009184641030471763</v>
+        <v>0.00101766834277792</v>
       </c>
     </row>
     <row r="133">
@@ -8294,13 +8294,13 @@
       </c>
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="n">
-        <v>0.00111161440063578</v>
+        <v>0.001438021660555144</v>
       </c>
       <c r="P133" t="n">
         <v>0.0012</v>
       </c>
       <c r="Q133" t="n">
-        <v>0.0005880440179363275</v>
+        <v>0.0007607134584336713</v>
       </c>
     </row>
     <row r="134">
@@ -8353,13 +8353,13 @@
       </c>
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="n">
-        <v>0.0005430271727072439</v>
+        <v>0.0008958482259773886</v>
       </c>
       <c r="P134" t="n">
         <v>0.0016</v>
       </c>
       <c r="Q134" t="n">
-        <v>0.0003822911295858997</v>
+        <v>0.0006306771510880816</v>
       </c>
     </row>
     <row r="135">
@@ -8412,13 +8412,13 @@
       </c>
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="n">
-        <v>0.0004209864597950656</v>
+        <v>0.0006933343705266384</v>
       </c>
       <c r="P135" t="n">
         <v>0.0021</v>
       </c>
       <c r="Q135" t="n">
-        <v>0.0002319635393470811</v>
+        <v>0.0003820272381601778</v>
       </c>
     </row>
     <row r="136">
@@ -8471,13 +8471,13 @@
       </c>
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="n">
-        <v>0.003295189433863512</v>
+        <v>0.002692086909521359</v>
       </c>
       <c r="P136" t="n">
         <v>0.00109</v>
       </c>
       <c r="Q136" t="n">
-        <v>0.002029836691259923</v>
+        <v>0.001658325536265157</v>
       </c>
     </row>
     <row r="137">
@@ -8530,13 +8530,13 @@
       </c>
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="n">
-        <v>0.002158536829491535</v>
+        <v>0.002223017917115906</v>
       </c>
       <c r="P137" t="n">
         <v>0.0015</v>
       </c>
       <c r="Q137" t="n">
-        <v>0.008547805844786479</v>
+        <v>0.008803150951778988</v>
       </c>
     </row>
     <row r="138">
@@ -8589,13 +8589,13 @@
       </c>
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="n">
-        <v>0.00104421095975827</v>
+        <v>0.00142097648202553</v>
       </c>
       <c r="P138" t="n">
         <v>0.00195</v>
       </c>
       <c r="Q138" t="n">
-        <v>0.004051538523862088</v>
+        <v>0.005513388750259056</v>
       </c>
     </row>
     <row r="139">
@@ -8648,13 +8648,13 @@
       </c>
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="n">
-        <v>0.0007912841891843483</v>
+        <v>0.001127949686263637</v>
       </c>
       <c r="P139" t="n">
         <v>0.00253</v>
       </c>
       <c r="Q139" t="n">
-        <v>0.0005341168276994351</v>
+        <v>0.0007613660382279551</v>
       </c>
     </row>
     <row r="140">
@@ -8707,13 +8707,13 @@
       </c>
       <c r="N140" t="inlineStr"/>
       <c r="O140" t="n">
-        <v>0.006617841533318749</v>
+        <v>0.004186130209005112</v>
       </c>
       <c r="P140" t="n">
         <v>0.00156</v>
       </c>
       <c r="Q140" t="n">
-        <v>0.001224300683663969</v>
+        <v>0.0007744340886659457</v>
       </c>
     </row>
     <row r="141">
@@ -8766,13 +8766,13 @@
       </c>
       <c r="N141" t="inlineStr"/>
       <c r="O141" t="n">
-        <v>0.004444139088233975</v>
+        <v>0.003645518970152108</v>
       </c>
       <c r="P141" t="n">
         <v>0.00211</v>
       </c>
       <c r="Q141" t="n">
-        <v>0.006532884459703943</v>
+        <v>0.005358912886123599</v>
       </c>
     </row>
     <row r="142">
@@ -8825,13 +8825,13 @@
       </c>
       <c r="N142" t="inlineStr"/>
       <c r="O142" t="n">
-        <v>0.002059393852540563</v>
+        <v>0.002263643267433742</v>
       </c>
       <c r="P142" t="n">
         <v>0.00276</v>
       </c>
       <c r="Q142" t="n">
-        <v>0.0009843902615143888</v>
+        <v>0.001082021481833329</v>
       </c>
     </row>
     <row r="143">
@@ -8884,13 +8884,13 @@
       </c>
       <c r="N143" t="inlineStr"/>
       <c r="O143" t="n">
-        <v>0.001477447264903818</v>
+        <v>0.001794163455987317</v>
       </c>
       <c r="P143" t="n">
         <v>0.00356</v>
       </c>
       <c r="Q143" t="n">
-        <v>0.001551319628149009</v>
+        <v>0.001883871628786683</v>
       </c>
     </row>
     <row r="144">
@@ -8943,13 +8943,13 @@
       </c>
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="n">
-        <v>0.003013188312379974</v>
+        <v>0.003813570560441955</v>
       </c>
       <c r="P144" t="n">
         <v>0.000995</v>
       </c>
       <c r="Q144" t="n">
-        <v>0.0002946898169507614</v>
+        <v>0.0003729672008112232</v>
       </c>
     </row>
     <row r="145">
@@ -9002,13 +9002,13 @@
       </c>
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="n">
-        <v>0.001877787311249431</v>
+        <v>0.002565717632914981</v>
       </c>
       <c r="P145" t="n">
         <v>0.00143</v>
       </c>
       <c r="Q145" t="n">
-        <v>0.05990141522885684</v>
+        <v>0.0818463924899879</v>
       </c>
     </row>
     <row r="146">
@@ -9061,13 +9061,13 @@
       </c>
       <c r="N146" t="inlineStr"/>
       <c r="O146" t="n">
-        <v>0.0008944967223692844</v>
+        <v>0.001446544005964691</v>
       </c>
       <c r="P146" t="n">
         <v>0.00197</v>
       </c>
       <c r="Q146" t="n">
-        <v>5.939458236532049e-05</v>
+        <v>9.60505219960555e-05</v>
       </c>
     </row>
     <row r="147">
@@ -9120,13 +9120,13 @@
       </c>
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="n">
-        <v>0.0006876651328162497</v>
+        <v>0.001101273441090771</v>
       </c>
       <c r="P147" t="n">
         <v>0.00261</v>
       </c>
       <c r="Q147" t="n">
-        <v>0.0006532818761754372</v>
+        <v>0.001046209769036232</v>
       </c>
     </row>
     <row r="148">
@@ -9179,13 +9179,13 @@
       </c>
       <c r="N148" t="inlineStr"/>
       <c r="O148" t="n">
-        <v>0.005336977626016069</v>
+        <v>0.005609214237329107</v>
       </c>
       <c r="P148" t="n">
         <v>0.000731</v>
       </c>
       <c r="Q148" t="n">
-        <v>0.0005390347402276231</v>
+        <v>0.0005665306379702399</v>
       </c>
     </row>
     <row r="149">
@@ -9238,13 +9238,13 @@
       </c>
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="n">
-        <v>0.003382689631647518</v>
+        <v>0.00407612488460267</v>
       </c>
       <c r="P149" t="n">
         <v>0.000998</v>
       </c>
       <c r="Q149" t="n">
-        <v>0.002895582324690275</v>
+        <v>0.003489162901219886</v>
       </c>
     </row>
     <row r="150">
@@ -9297,13 +9297,13 @@
       </c>
       <c r="N150" t="inlineStr"/>
       <c r="O150" t="n">
-        <v>0.001629595121536322</v>
+        <v>0.002375547301193713</v>
       </c>
       <c r="P150" t="n">
         <v>0.00133</v>
       </c>
       <c r="Q150" t="n">
-        <v>0.005165816535270141</v>
+        <v>0.007530484944784071</v>
       </c>
     </row>
     <row r="151">
@@ -9356,13 +9356,13 @@
       </c>
       <c r="N151" t="inlineStr"/>
       <c r="O151" t="n">
-        <v>0.001219480989347772</v>
+        <v>0.00181305849806163</v>
       </c>
       <c r="P151" t="n">
         <v>0.00173</v>
       </c>
       <c r="Q151" t="n">
-        <v>0.0005963262037910604</v>
+        <v>0.0008865856055521371</v>
       </c>
     </row>
     <row r="152">
@@ -9415,13 +9415,13 @@
       </c>
       <c r="N152" t="inlineStr"/>
       <c r="O152" t="n">
-        <v>0.0107078607462572</v>
+        <v>0.00853036515595056</v>
       </c>
       <c r="P152" t="n">
         <v>0.000962</v>
       </c>
       <c r="Q152" t="n">
-        <v>0.02762628072534357</v>
+        <v>0.02200834210235244</v>
       </c>
     </row>
     <row r="153">
@@ -9474,13 +9474,13 @@
       </c>
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="n">
-        <v>0.006840040799359458</v>
+        <v>0.006684074757842795</v>
       </c>
       <c r="P153" t="n">
         <v>0.00127</v>
       </c>
       <c r="Q153" t="n">
-        <v>0.001477448812661643</v>
+        <v>0.001443760147694044</v>
       </c>
     </row>
     <row r="154">
@@ -9533,13 +9533,13 @@
       </c>
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="n">
-        <v>0.003192617706701961</v>
+        <v>0.003906591903891354</v>
       </c>
       <c r="P154" t="n">
         <v>0.00163</v>
       </c>
       <c r="Q154" t="n">
-        <v>0.002937208290165804</v>
+        <v>0.003594064551580046</v>
       </c>
     </row>
     <row r="155">
@@ -9592,13 +9592,13 @@
       </c>
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="n">
-        <v>0.00232401913053155</v>
+        <v>0.00303440587495508</v>
       </c>
       <c r="P155" t="n">
         <v>0.00206</v>
       </c>
       <c r="Q155" t="n">
-        <v>0.001959148127038096</v>
+        <v>0.002558004152587133</v>
       </c>
     </row>
     <row r="156">
@@ -9651,13 +9651,13 @@
       </c>
       <c r="N156" t="inlineStr"/>
       <c r="O156" t="n">
-        <v>0.02336105295394629</v>
+        <v>0.01425700656520108</v>
       </c>
       <c r="P156" t="n">
         <v>0.00141</v>
       </c>
       <c r="Q156" t="n">
-        <v>0.005186153755776077</v>
+        <v>0.003165055457474641</v>
       </c>
     </row>
     <row r="157">
@@ -9710,13 +9710,13 @@
       </c>
       <c r="N157" t="inlineStr"/>
       <c r="O157" t="n">
-        <v>0.0147635186411171</v>
+        <v>0.01153505887766822</v>
       </c>
       <c r="P157" t="n">
         <v>0.00182</v>
       </c>
       <c r="Q157" t="n">
-        <v>0.02834595579094483</v>
+        <v>0.02214731304512298</v>
       </c>
     </row>
     <row r="158">
@@ -9769,13 +9769,13 @@
       </c>
       <c r="N158" t="inlineStr"/>
       <c r="O158" t="n">
-        <v>0.006580703886676529</v>
+        <v>0.006581393207339874</v>
       </c>
       <c r="P158" t="n">
         <v>0.00238</v>
       </c>
       <c r="Q158" t="n">
-        <v>0.2777057040177496</v>
+        <v>0.2777347933497427</v>
       </c>
     </row>
     <row r="159">
@@ -9828,13 +9828,13 @@
       </c>
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="n">
-        <v>0.004442639495658277</v>
+        <v>0.005002929349571778</v>
       </c>
       <c r="P159" t="n">
         <v>0.00293</v>
       </c>
       <c r="Q159" t="n">
-        <v>0.0007596913537575654</v>
+        <v>0.0008555009187767742</v>
       </c>
     </row>
     <row r="160">
@@ -9887,13 +9887,13 @@
       </c>
       <c r="N160" t="inlineStr"/>
       <c r="O160" t="n">
-        <v>0.008506483808473802</v>
+        <v>0.01031731102077017</v>
       </c>
       <c r="P160" t="n">
         <v>0.000936</v>
       </c>
       <c r="Q160" t="n">
-        <v>0.005154929187935124</v>
+        <v>0.006252290478586721</v>
       </c>
     </row>
     <row r="161">
@@ -9946,13 +9946,13 @@
       </c>
       <c r="N161" t="inlineStr"/>
       <c r="O161" t="n">
-        <v>0.005237362752831552</v>
+        <v>0.006790003621579796</v>
       </c>
       <c r="P161" t="n">
         <v>0.00132</v>
       </c>
       <c r="Q161" t="n">
-        <v>0.003069094573159289</v>
+        <v>0.00397894212224576</v>
       </c>
     </row>
     <row r="162">
@@ -10005,13 +10005,13 @@
       </c>
       <c r="N162" t="inlineStr"/>
       <c r="O162" t="n">
-        <v>0.00247957252186839</v>
+        <v>0.003684547192601992</v>
       </c>
       <c r="P162" t="n">
         <v>0.00177</v>
       </c>
       <c r="Q162" t="n">
-        <v>0.003967316034989424</v>
+        <v>0.005895275508163188</v>
       </c>
     </row>
     <row r="163">
@@ -10064,13 +10064,13 @@
       </c>
       <c r="N163" t="inlineStr"/>
       <c r="O163" t="n">
-        <v>0.001833969362780612</v>
+        <v>0.002771659052635848</v>
       </c>
       <c r="P163" t="n">
         <v>0.00228</v>
       </c>
       <c r="Q163" t="n">
-        <v>0.004786660036857398</v>
+        <v>0.007234030127379562</v>
       </c>
     </row>
     <row r="164">
@@ -10123,13 +10123,13 @@
       </c>
       <c r="N164" t="inlineStr"/>
       <c r="O164" t="n">
-        <v>0.01535428981258675</v>
+        <v>0.01569022713149012</v>
       </c>
       <c r="P164" t="n">
         <v>0.000691</v>
       </c>
       <c r="Q164" t="n">
-        <v>0.004544869784525677</v>
+        <v>0.004644307230921075</v>
       </c>
     </row>
     <row r="165">
@@ -10182,13 +10182,13 @@
       </c>
       <c r="N165" t="inlineStr"/>
       <c r="O165" t="n">
-        <v>0.009618592181926726</v>
+        <v>0.0110467781325796</v>
       </c>
       <c r="P165" t="n">
         <v>0.0009120000000000001</v>
       </c>
       <c r="Q165" t="n">
-        <v>0.004328366481867026</v>
+        <v>0.004971050159660821</v>
       </c>
     </row>
     <row r="166">
@@ -10241,13 +10241,13 @@
       </c>
       <c r="N166" t="inlineStr"/>
       <c r="O166" t="n">
-        <v>0.004506229251045771</v>
+        <v>0.006089689733402782</v>
       </c>
       <c r="P166" t="n">
         <v>0.0012</v>
       </c>
       <c r="Q166" t="n">
-        <v>0.0102291403998739</v>
+        <v>0.01382359569482432</v>
       </c>
     </row>
     <row r="167">
@@ -10300,13 +10300,13 @@
       </c>
       <c r="N167" t="inlineStr"/>
       <c r="O167" t="n">
-        <v>0.003264040088378725</v>
+        <v>0.004606799308275925</v>
       </c>
       <c r="P167" t="n">
         <v>0.00152</v>
       </c>
       <c r="Q167" t="n">
-        <v>0.002669984792293797</v>
+        <v>0.003768361834169706</v>
       </c>
     </row>
     <row r="168">
@@ -10359,13 +10359,13 @@
       </c>
       <c r="N168" t="inlineStr"/>
       <c r="O168" t="n">
-        <v>0.03254874551299898</v>
+        <v>0.02535034764712997</v>
       </c>
       <c r="P168" t="n">
         <v>0.000926</v>
       </c>
       <c r="Q168" t="n">
-        <v>0.04198788171176868</v>
+        <v>0.03270194846479766</v>
       </c>
     </row>
     <row r="169">
@@ -10418,13 +10418,13 @@
       </c>
       <c r="N169" t="inlineStr"/>
       <c r="O169" t="n">
-        <v>0.01998404368959134</v>
+        <v>0.01876493360910919</v>
       </c>
       <c r="P169" t="n">
         <v>0.00118</v>
       </c>
       <c r="Q169" t="n">
-        <v>0.01774583079635711</v>
+        <v>0.01666326104488897</v>
       </c>
     </row>
     <row r="170">
@@ -10477,13 +10477,13 @@
       </c>
       <c r="N170" t="inlineStr"/>
       <c r="O170" t="n">
-        <v>0.009169477345023257</v>
+        <v>0.01045876921351593</v>
       </c>
       <c r="P170" t="n">
         <v>0.00147</v>
       </c>
       <c r="Q170" t="n">
-        <v>0.007381429262743723</v>
+        <v>0.008419309216880326</v>
       </c>
     </row>
     <row r="171">
@@ -10536,13 +10536,13 @@
       </c>
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="n">
-        <v>0.006317621914213789</v>
+        <v>0.007885921120313022</v>
       </c>
       <c r="P171" t="n">
         <v>0.00183</v>
       </c>
       <c r="Q171" t="n">
-        <v>0.0007833851173625098</v>
+        <v>0.0009778542189188147</v>
       </c>
     </row>
     <row r="172">
@@ -10595,13 +10595,13 @@
       </c>
       <c r="N172" t="inlineStr"/>
       <c r="O172" t="n">
-        <v>0.07638662167218556</v>
+        <v>0.0447375855139987</v>
       </c>
       <c r="P172" t="n">
         <v>0.00139</v>
       </c>
       <c r="Q172" t="n">
-        <v>0.2757557042365898</v>
+        <v>0.1615026837055353</v>
       </c>
     </row>
     <row r="173">
@@ -10654,13 +10654,13 @@
       </c>
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="n">
-        <v>0.04570656580787155</v>
+        <v>0.03412473054712825</v>
       </c>
       <c r="P173" t="n">
         <v>0.00175</v>
       </c>
       <c r="Q173" t="n">
-        <v>0.01618012429598653</v>
+        <v>0.0120801546136834</v>
       </c>
     </row>
     <row r="174">
@@ -10713,13 +10713,13 @@
       </c>
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="n">
-        <v>0.01954248176573921</v>
+        <v>0.01834179044253111</v>
       </c>
       <c r="P174" t="n">
         <v>0.00214</v>
       </c>
       <c r="Q174" t="n">
-        <v>0.02130130512465574</v>
+        <v>0.01999255158235891</v>
       </c>
     </row>
     <row r="175">
@@ -10772,13 +10772,13 @@
       </c>
       <c r="N175" t="inlineStr"/>
       <c r="O175" t="n">
-        <v>0.0122853604669187</v>
+        <v>0.01333504864138159</v>
       </c>
       <c r="P175" t="n">
         <v>0.0026</v>
       </c>
       <c r="Q175" t="n">
-        <v>0.0001314533569960301</v>
+        <v>0.000142685020462783</v>
       </c>
     </row>
     <row r="176">
@@ -10831,13 +10831,13 @@
       </c>
       <c r="N176" t="inlineStr"/>
       <c r="O176" t="n">
-        <v>0.02065355577350549</v>
+        <v>0.02483697004275772</v>
       </c>
       <c r="P176" t="n">
         <v>0.00102</v>
       </c>
       <c r="Q176" t="n">
-        <v>0.01028547077520573</v>
+        <v>0.01236881108129335</v>
       </c>
     </row>
     <row r="177">
@@ -10890,13 +10890,13 @@
       </c>
       <c r="N177" t="inlineStr"/>
       <c r="O177" t="n">
-        <v>0.01252676169838373</v>
+        <v>0.01586410905966345</v>
       </c>
       <c r="P177" t="n">
         <v>0.00137</v>
       </c>
       <c r="Q177" t="n">
-        <v>0.007729011967902759</v>
+        <v>0.009788155289812349</v>
       </c>
     </row>
     <row r="178">
@@ -10949,13 +10949,13 @@
       </c>
       <c r="N178" t="inlineStr"/>
       <c r="O178" t="n">
-        <v>0.005836614589611589</v>
+        <v>0.008326969306003719</v>
       </c>
       <c r="P178" t="n">
         <v>0.00174</v>
       </c>
       <c r="Q178" t="n">
-        <v>0.001073937084488532</v>
+        <v>0.001532162352304684</v>
       </c>
     </row>
     <row r="179">
@@ -11008,13 +11008,13 @@
       </c>
       <c r="N179" t="inlineStr"/>
       <c r="O179" t="n">
-        <v>0.004232586428862373</v>
+        <v>0.006293240099597004</v>
       </c>
       <c r="P179" t="n">
         <v>0.0022</v>
       </c>
       <c r="Q179" t="n">
-        <v>0.001701499744402674</v>
+        <v>0.002529882520037996</v>
       </c>
     </row>
     <row r="180">
@@ -11067,13 +11067,13 @@
       </c>
       <c r="N180" t="inlineStr"/>
       <c r="O180" t="n">
-        <v>0.03803127421726693</v>
+        <v>0.03879314335361852</v>
       </c>
       <c r="P180" t="n">
         <v>0.000746</v>
       </c>
       <c r="Q180" t="n">
-        <v>3.552121011892731e-06</v>
+        <v>3.623279589227969e-06</v>
       </c>
     </row>
     <row r="181">
@@ -11126,13 +11126,13 @@
       </c>
       <c r="N181" t="inlineStr"/>
       <c r="O181" t="n">
-        <v>0.02330264134699465</v>
+        <v>0.02627952667657883</v>
       </c>
       <c r="P181" t="n">
         <v>0.000958</v>
       </c>
       <c r="Q181" t="n">
-        <v>0.008225832395489113</v>
+        <v>0.009276672916832327</v>
       </c>
     </row>
     <row r="182">
@@ -11185,13 +11185,13 @@
       </c>
       <c r="N182" t="inlineStr"/>
       <c r="O182" t="n">
-        <v>0.01077222721165104</v>
+        <v>0.01402177388434805</v>
       </c>
       <c r="P182" t="n">
         <v>0.00121</v>
       </c>
       <c r="Q182" t="n">
-        <v>0.001745100808287469</v>
+        <v>0.002271527369264385</v>
       </c>
     </row>
     <row r="183">
@@ -11244,13 +11244,13 @@
       </c>
       <c r="N183" t="inlineStr"/>
       <c r="O183" t="n">
-        <v>0.007557515787248454</v>
+        <v>0.01052932178191371</v>
       </c>
       <c r="P183" t="n">
         <v>0.00148</v>
       </c>
       <c r="Q183" t="n">
-        <v>0.002917201093877903</v>
+        <v>0.004064318207818694</v>
       </c>
     </row>
     <row r="184">
@@ -11303,13 +11303,13 @@
       </c>
       <c r="N184" t="inlineStr"/>
       <c r="O184" t="n">
-        <v>0.08309934155925595</v>
+        <v>0.06481978089358179</v>
       </c>
       <c r="P184" t="n">
         <v>0.00102</v>
       </c>
       <c r="Q184" t="n">
-        <v>0.01645366962873268</v>
+        <v>0.01283431661692919</v>
       </c>
     </row>
     <row r="185">
@@ -11362,13 +11362,13 @@
       </c>
       <c r="N185" t="inlineStr"/>
       <c r="O185" t="n">
-        <v>0.04974335291781432</v>
+        <v>0.04599226251165806</v>
       </c>
       <c r="P185" t="n">
         <v>0.00126</v>
       </c>
       <c r="Q185" t="n">
-        <v>0.02785627763397602</v>
+        <v>0.02575566700652851</v>
       </c>
     </row>
     <row r="186">
@@ -11421,13 +11421,13 @@
       </c>
       <c r="N186" t="inlineStr"/>
       <c r="O186" t="n">
-        <v>0.02206350448439734</v>
+        <v>0.02447718250795367</v>
       </c>
       <c r="P186" t="n">
         <v>0.0015</v>
       </c>
       <c r="Q186" t="n">
-        <v>0.01601810425567247</v>
+        <v>0.01777043450077436</v>
       </c>
     </row>
     <row r="187">
@@ -11480,13 +11480,13 @@
       </c>
       <c r="N187" t="inlineStr"/>
       <c r="O187" t="n">
-        <v>0.01485004227017001</v>
+        <v>0.01840438779167911</v>
       </c>
       <c r="P187" t="n">
         <v>0.00179</v>
       </c>
       <c r="Q187" t="n">
-        <v>0.003460059848949611</v>
+        <v>0.004288222355461232</v>
       </c>
     </row>
     <row r="188">
@@ -11539,13 +11539,13 @@
       </c>
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="n">
-        <v>0.2066505535226216</v>
+        <v>0.1194643048220262</v>
       </c>
       <c r="P188" t="n">
         <v>0.00157</v>
       </c>
       <c r="Q188" t="n">
-        <v>0.1444487369123125</v>
+        <v>0.08350554907059635</v>
       </c>
     </row>
     <row r="189">
@@ -11598,13 +11598,13 @@
       </c>
       <c r="N189" t="inlineStr"/>
       <c r="O189" t="n">
-        <v>0.11766284098345</v>
+        <v>0.08630835081253815</v>
       </c>
       <c r="P189" t="n">
         <v>0.00193</v>
       </c>
       <c r="Q189" t="n">
-        <v>0.05024203309993313</v>
+        <v>0.03685366579695379</v>
       </c>
     </row>
     <row r="190">
@@ -11657,13 +11657,13 @@
       </c>
       <c r="N190" t="inlineStr"/>
       <c r="O190" t="n">
-        <v>0.04858412279150923</v>
+        <v>0.04444440126601719</v>
       </c>
       <c r="P190" t="n">
         <v>0.00225</v>
       </c>
       <c r="Q190" t="n">
-        <v>0.0003974181244345455</v>
+        <v>0.0003635552023560206</v>
       </c>
     </row>
     <row r="191">
@@ -11716,13 +11716,13 @@
       </c>
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="n">
-        <v>0.02956269997135759</v>
+        <v>0.03196644671513171</v>
       </c>
       <c r="P191" t="n">
         <v>0.00261</v>
       </c>
       <c r="Q191" t="n">
-        <v>0.01800368428255677</v>
+        <v>0.01946756604951521</v>
       </c>
     </row>
     <row r="192">
@@ -11775,13 +11775,13 @@
       </c>
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="n">
-        <v>0.03716999959377476</v>
+        <v>0.0469750192621179</v>
       </c>
       <c r="P192" t="n">
         <v>0.00165</v>
       </c>
       <c r="Q192" t="n">
-        <v>0.03256091964414669</v>
+        <v>0.04115011687361528</v>
       </c>
     </row>
     <row r="193">
@@ -11834,13 +11834,13 @@
       </c>
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="n">
-        <v>0.02226138448904046</v>
+        <v>0.02899440592042992</v>
       </c>
       <c r="P193" t="n">
         <v>0.00215</v>
       </c>
       <c r="Q193" t="n">
-        <v>0.008058621185032646</v>
+        <v>0.01049597494319563</v>
       </c>
     </row>
     <row r="194">
@@ -11893,13 +11893,13 @@
       </c>
       <c r="N194" t="inlineStr"/>
       <c r="O194" t="n">
-        <v>0.01021343788218366</v>
+        <v>0.01489553317933633</v>
       </c>
       <c r="P194" t="n">
         <v>0.00266</v>
       </c>
       <c r="Q194" t="n">
-        <v>0.003748331702761404</v>
+        <v>0.005466660676816433</v>
       </c>
     </row>
     <row r="195">
@@ -11952,13 +11952,13 @@
       </c>
       <c r="N195" t="inlineStr"/>
       <c r="O195" t="n">
-        <v>0.007484064047458087</v>
+        <v>0.01156246029325788</v>
       </c>
       <c r="P195" t="n">
         <v>0.00312</v>
       </c>
       <c r="Q195" t="n">
-        <v>0.008082789171254734</v>
+        <v>0.01248745711671851</v>
       </c>
     </row>
     <row r="196">
@@ -12011,13 +12011,13 @@
       </c>
       <c r="N196" t="inlineStr"/>
       <c r="O196" t="n">
-        <v>0.06756948594197279</v>
+        <v>0.07265155106208963</v>
       </c>
       <c r="P196" t="n">
         <v>0.00125</v>
       </c>
       <c r="Q196" t="n">
-        <v>0.0511501008580734</v>
+        <v>0.05499722415400185</v>
       </c>
     </row>
     <row r="197">
@@ -12070,13 +12070,13 @@
       </c>
       <c r="N197" t="inlineStr"/>
       <c r="O197" t="n">
-        <v>0.04077680402489213</v>
+        <v>0.04761992704026995</v>
       </c>
       <c r="P197" t="n">
         <v>0.00152</v>
       </c>
       <c r="Q197" t="n">
-        <v>0.0005300984523235976</v>
+        <v>0.0006190590515235093</v>
       </c>
     </row>
     <row r="198">
@@ -12129,13 +12129,13 @@
       </c>
       <c r="N198" t="inlineStr"/>
       <c r="O198" t="n">
-        <v>0.01880327259111082</v>
+        <v>0.02514908133912998</v>
       </c>
       <c r="P198" t="n">
         <v>0.00184</v>
       </c>
       <c r="Q198" t="n">
-        <v>0.002388015619071075</v>
+        <v>0.003193933330069508</v>
       </c>
     </row>
     <row r="199">
@@ -12188,13 +12188,13 @@
       </c>
       <c r="N199" t="inlineStr"/>
       <c r="O199" t="n">
-        <v>0.01327923172787098</v>
+        <v>0.01924550458991235</v>
       </c>
       <c r="P199" t="n">
         <v>0.00213</v>
       </c>
       <c r="Q199" t="n">
-        <v>1.219033472618556e-05</v>
+        <v>1.766737321353954e-05</v>
       </c>
     </row>
     <row r="200">
@@ -12247,13 +12247,13 @@
       </c>
       <c r="N200" t="inlineStr"/>
       <c r="O200" t="n">
-        <v>0.1498698746387077</v>
+        <v>0.1234411868532586</v>
       </c>
       <c r="P200" t="n">
         <v>0.00183</v>
       </c>
       <c r="Q200" t="n">
-        <v>0.02293009081972227</v>
+        <v>0.01888650158854856</v>
       </c>
     </row>
     <row r="201">
@@ -12306,13 +12306,13 @@
       </c>
       <c r="N201" t="inlineStr"/>
       <c r="O201" t="n">
-        <v>0.08771304171541403</v>
+        <v>0.08466684337557004</v>
       </c>
       <c r="P201" t="n">
         <v>0.00209</v>
       </c>
       <c r="Q201" t="n">
-        <v>0.02236682563743058</v>
+        <v>0.02159004506077036</v>
       </c>
     </row>
     <row r="202">
@@ -12365,13 +12365,13 @@
       </c>
       <c r="N202" t="inlineStr"/>
       <c r="O202" t="n">
-        <v>0.03858110970138856</v>
+        <v>0.04430625949999244</v>
       </c>
       <c r="P202" t="n">
         <v>0.00237</v>
       </c>
       <c r="Q202" t="n">
-        <v>0.009761020754451306</v>
+        <v>0.01120948365349809</v>
       </c>
     </row>
     <row r="203">
@@ -12424,13 +12424,13 @@
       </c>
       <c r="N203" t="inlineStr"/>
       <c r="O203" t="n">
-        <v>0.02586797024263674</v>
+        <v>0.03352381191758106</v>
       </c>
       <c r="P203" t="n">
         <v>0.00266</v>
       </c>
       <c r="Q203" t="n">
-        <v>0.01774542758644881</v>
+        <v>0.02299733497546061</v>
       </c>
     </row>
     <row r="204">
@@ -12483,13 +12483,13 @@
       </c>
       <c r="N204" t="inlineStr"/>
       <c r="O204" t="n">
-        <v>0.3722673507443885</v>
+        <v>0.228201598958453</v>
       </c>
       <c r="P204" t="n">
         <v>0.00294</v>
       </c>
       <c r="Q204" t="n">
-        <v>0.03596102608190794</v>
+        <v>0.02204427445938657</v>
       </c>
     </row>
     <row r="205">
@@ -12542,13 +12542,13 @@
       </c>
       <c r="N205" t="inlineStr"/>
       <c r="O205" t="n">
-        <v>0.209522735109876</v>
+        <v>0.1613942683673495</v>
       </c>
       <c r="P205" t="n">
         <v>0.00339</v>
       </c>
       <c r="Q205" t="n">
-        <v>0.1037137538793886</v>
+        <v>0.07989016284183802</v>
       </c>
     </row>
     <row r="206">
@@ -12601,13 +12601,13 @@
       </c>
       <c r="N206" t="inlineStr"/>
       <c r="O206" t="n">
-        <v>0.08459496037160374</v>
+        <v>0.08094359877529447</v>
       </c>
       <c r="P206" t="n">
         <v>0.0037</v>
       </c>
       <c r="Q206" t="n">
-        <v>0.01565006766874669</v>
+        <v>0.01497456577342948</v>
       </c>
     </row>
     <row r="207">
@@ -12660,13 +12660,13 @@
       </c>
       <c r="N207" t="inlineStr"/>
       <c r="O207" t="n">
-        <v>0.05203935972912095</v>
+        <v>0.0592413907814062</v>
       </c>
       <c r="P207" t="n">
         <v>0.004</v>
       </c>
       <c r="Q207" t="n">
-        <v>0.01706890999115167</v>
+        <v>0.01943117617630124</v>
       </c>
     </row>
     <row r="208">
@@ -12719,13 +12719,13 @@
       </c>
       <c r="N208" t="inlineStr"/>
       <c r="O208" t="n">
-        <v>0.0620493561882856</v>
+        <v>0.08686838138178192</v>
       </c>
       <c r="P208" t="n">
         <v>0.0342</v>
       </c>
       <c r="Q208" t="n">
-        <v>0.01030019312725541</v>
+        <v>0.0144201513093758</v>
       </c>
     </row>
     <row r="209">
@@ -12778,13 +12778,13 @@
       </c>
       <c r="N209" t="inlineStr"/>
       <c r="O209" t="n">
-        <v>0.04033057020582632</v>
+        <v>0.05609170903081147</v>
       </c>
       <c r="P209" t="n">
         <v>0.0421</v>
       </c>
       <c r="Q209" t="n">
-        <v>0.09276031147340053</v>
+        <v>0.1290109307708664</v>
       </c>
     </row>
     <row r="210">
@@ -12837,13 +12837,13 @@
       </c>
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="n">
-        <v>0.01867110737763866</v>
+        <v>0.02884966902032611</v>
       </c>
       <c r="P210" t="n">
         <v>0.0543</v>
       </c>
       <c r="Q210" t="n">
-        <v>0.433169691161217</v>
+        <v>0.6693123212715657</v>
       </c>
     </row>
     <row r="211">
@@ -12896,13 +12896,13 @@
       </c>
       <c r="N211" t="inlineStr"/>
       <c r="O211" t="n">
-        <v>0.01420281445502878</v>
+        <v>0.02347794994154827</v>
       </c>
       <c r="P211" t="n">
         <v>0.0688</v>
       </c>
       <c r="Q211" t="n">
-        <v>0.1113500653274257</v>
+        <v>0.1840671275417384</v>
       </c>
     </row>
     <row r="212">
@@ -12955,13 +12955,13 @@
       </c>
       <c r="N212" t="inlineStr"/>
       <c r="O212" t="n">
-        <v>0.1091043305791793</v>
+        <v>0.1316319681597273</v>
       </c>
       <c r="P212" t="n">
         <v>0.024</v>
       </c>
       <c r="Q212" t="n">
-        <v>0.05717066922348996</v>
+        <v>0.06897515131569712</v>
       </c>
     </row>
     <row r="213">
@@ -13014,13 +13014,13 @@
       </c>
       <c r="N213" t="inlineStr"/>
       <c r="O213" t="n">
-        <v>0.07058964914775849</v>
+        <v>0.08892320753595451</v>
       </c>
       <c r="P213" t="n">
         <v>0.0302</v>
       </c>
       <c r="Q213" t="n">
-        <v>0.0411537654531432</v>
+        <v>0.05184222999346148</v>
       </c>
     </row>
     <row r="214">
@@ -13073,13 +13073,13 @@
       </c>
       <c r="N214" t="inlineStr"/>
       <c r="O214" t="n">
-        <v>0.03336201297725398</v>
+        <v>0.04773182643185661</v>
       </c>
       <c r="P214" t="n">
         <v>0.0317</v>
       </c>
       <c r="Q214" t="n">
-        <v>2.562202596653106</v>
+        <v>3.665804269966587</v>
       </c>
     </row>
     <row r="215">
@@ -13132,13 +13132,13 @@
       </c>
       <c r="N215" t="inlineStr"/>
       <c r="O215" t="n">
-        <v>0.02655423861937291</v>
+        <v>0.04087672105290856</v>
       </c>
       <c r="P215" t="n">
         <v>0.0415</v>
       </c>
       <c r="Q215" t="n">
-        <v>0.1386131255931266</v>
+        <v>0.2133764838961827</v>
       </c>
     </row>
     <row r="216">
@@ -13191,13 +13191,13 @@
       </c>
       <c r="N216" t="inlineStr"/>
       <c r="O216" t="n">
-        <v>0.2311303024935222</v>
+        <v>0.2167774327550488</v>
       </c>
       <c r="P216" t="n">
         <v>0.0404</v>
       </c>
       <c r="Q216" t="n">
-        <v>0.007881543315029107</v>
+        <v>0.007392110456947165</v>
       </c>
     </row>
     <row r="217">
@@ -13250,13 +13250,13 @@
       </c>
       <c r="N217" t="inlineStr"/>
       <c r="O217" t="n">
-        <v>0.1396014589571639</v>
+        <v>0.1497540450438059</v>
       </c>
       <c r="P217" t="n">
         <v>0.0683</v>
       </c>
       <c r="Q217" t="n">
-        <v>0.3113112534744756</v>
+        <v>0.3339515204476871</v>
       </c>
     </row>
     <row r="218">
@@ -13309,13 +13309,13 @@
       </c>
       <c r="N218" t="inlineStr"/>
       <c r="O218" t="n">
-        <v>0.06806972571541527</v>
+        <v>0.08442037683042133</v>
       </c>
       <c r="P218" t="n">
         <v>0.0448</v>
       </c>
       <c r="Q218" t="n">
-        <v>0.115718533716206</v>
+        <v>0.1435146406117163</v>
       </c>
     </row>
     <row r="219">
@@ -13368,13 +13368,13 @@
       </c>
       <c r="N219" t="inlineStr"/>
       <c r="O219" t="n">
-        <v>0.04803317699760877</v>
+        <v>0.06701960335668022</v>
       </c>
       <c r="P219" t="n">
         <v>0.0549</v>
       </c>
       <c r="Q219" t="n">
-        <v>0.05763981239713052</v>
+        <v>0.08042352402801627</v>
       </c>
     </row>
     <row r="220">
@@ -13427,13 +13427,13 @@
       </c>
       <c r="N220" t="inlineStr"/>
       <c r="O220" t="n">
-        <v>0.1359590760872627</v>
+        <v>0.1467064459660349</v>
       </c>
       <c r="P220" t="n">
         <v>0.0683</v>
       </c>
       <c r="Q220" t="n">
-        <v>3.480552347833924</v>
+        <v>3.755685016730494</v>
       </c>
     </row>
     <row r="221">
@@ -13486,13 +13486,13 @@
       </c>
       <c r="N221" t="inlineStr"/>
       <c r="O221" t="n">
-        <v>0.09032068272103938</v>
+        <v>0.1117806108056363</v>
       </c>
       <c r="P221" t="n">
         <v>0.0752</v>
       </c>
       <c r="Q221" t="n">
-        <v>0.4904413071752438</v>
+        <v>0.6069687166746051</v>
       </c>
     </row>
     <row r="222">
@@ -13545,13 +13545,13 @@
       </c>
       <c r="N222" t="inlineStr"/>
       <c r="O222" t="n">
-        <v>0.001112734955320016</v>
+        <v>0.001402849385783267</v>
       </c>
       <c r="P222" t="n">
         <v>0.00513</v>
       </c>
       <c r="Q222" t="n">
-        <v>0.0007444196851090906</v>
+        <v>0.0009385062390890059</v>
       </c>
     </row>
     <row r="223">
@@ -13604,13 +13604,13 @@
       </c>
       <c r="N223" t="inlineStr"/>
       <c r="O223" t="n">
-        <v>0.0007341156285506768</v>
+        <v>0.000993016065368169</v>
       </c>
       <c r="P223" t="n">
         <v>0.00808</v>
       </c>
       <c r="Q223" t="n">
-        <v>0.0002363852323933179</v>
+        <v>0.0003197511730485504</v>
       </c>
     </row>
     <row r="224">
@@ -13663,13 +13663,13 @@
       </c>
       <c r="N224" t="inlineStr"/>
       <c r="O224" t="n">
-        <v>0.000362832424064238</v>
+        <v>0.0005946599895029273</v>
       </c>
       <c r="P224" t="n">
         <v>0.0125</v>
       </c>
       <c r="Q224" t="n">
-        <v>4.100006391925889e-05</v>
+        <v>6.719657881383078e-05</v>
       </c>
     </row>
     <row r="225">
@@ -13722,13 +13722,13 @@
       </c>
       <c r="N225" t="inlineStr"/>
       <c r="O225" t="n">
-        <v>0.0002820923870164663</v>
+        <v>0.0004540919779484817</v>
       </c>
       <c r="P225" t="n">
         <v>0.0183</v>
       </c>
       <c r="Q225" t="n">
-        <v>0.002321620345145518</v>
+        <v>0.003737176978516005</v>
       </c>
     </row>
     <row r="226">
@@ -13781,13 +13781,13 @@
       </c>
       <c r="N226" t="inlineStr"/>
       <c r="O226" t="n">
-        <v>0.001946468429556592</v>
+        <v>0.002012663574270198</v>
       </c>
       <c r="P226" t="n">
         <v>0.00343</v>
       </c>
       <c r="Q226" t="n">
-        <v>0.0007007286346403732</v>
+        <v>0.0007245588867372712</v>
       </c>
     </row>
     <row r="227">
@@ -13840,13 +13840,13 @@
       </c>
       <c r="N227" t="inlineStr"/>
       <c r="O227" t="n">
-        <v>0.001301000109679309</v>
+        <v>0.001544711997985084</v>
       </c>
       <c r="P227" t="n">
         <v>0.00507</v>
       </c>
       <c r="Q227" t="n">
-        <v>0.0009041950762271197</v>
+        <v>0.001073574838599633</v>
       </c>
     </row>
     <row r="228">
@@ -13899,13 +13899,13 @@
       </c>
       <c r="N228" t="inlineStr"/>
       <c r="O228" t="n">
-        <v>0.0006442215149396846</v>
+        <v>0.000952299278758989</v>
       </c>
       <c r="P228" t="n">
         <v>0.00783</v>
       </c>
       <c r="Q228" t="n">
-        <v>0.0004689932628760904</v>
+        <v>0.0006932738749365439</v>
       </c>
     </row>
     <row r="229">
@@ -13958,13 +13958,13 @@
       </c>
       <c r="N229" t="inlineStr"/>
       <c r="O229" t="n">
-        <v>0.0005082260475760733</v>
+        <v>0.0007591274785021516</v>
       </c>
       <c r="P229" t="n">
         <v>0.0114</v>
       </c>
       <c r="Q229" t="n">
-        <v>0.0006149535175670486</v>
+        <v>0.0009185442489876034</v>
       </c>
     </row>
     <row r="230">
@@ -14017,13 +14017,13 @@
       </c>
       <c r="N230" t="inlineStr"/>
       <c r="O230" t="n">
-        <v>0.003728534941390839</v>
+        <v>0.002928746168668929</v>
       </c>
       <c r="P230" t="n">
         <v>0.00434</v>
       </c>
       <c r="Q230" t="n">
-        <v>0.002897071649460682</v>
+        <v>0.002275635773055758</v>
       </c>
     </row>
     <row r="231">
@@ -14076,13 +14076,13 @@
       </c>
       <c r="N231" t="inlineStr"/>
       <c r="O231" t="n">
-        <v>0.002574577192033857</v>
+        <v>0.002472869717872631</v>
       </c>
       <c r="P231" t="n">
         <v>0.00605</v>
       </c>
       <c r="Q231" t="n">
-        <v>0.001089046152230322</v>
+        <v>0.001046023890660123</v>
       </c>
     </row>
     <row r="232">
@@ -14135,13 +14135,13 @@
       </c>
       <c r="N232" t="inlineStr"/>
       <c r="O232" t="n">
-        <v>0.001268354281510139</v>
+        <v>0.001560940261028633</v>
       </c>
       <c r="P232" t="n">
         <v>0.00891</v>
       </c>
       <c r="Q232" t="n">
-        <v>0.008777011628050158</v>
+        <v>0.01080170660631814</v>
       </c>
     </row>
     <row r="233">
@@ -14194,13 +14194,13 @@
       </c>
       <c r="N233" t="inlineStr"/>
       <c r="O233" t="n">
-        <v>0.0009675837474383304</v>
+        <v>0.001257326579570063</v>
       </c>
       <c r="P233" t="n">
         <v>0.0126</v>
       </c>
       <c r="Q233" t="n">
-        <v>0.000653119029520873</v>
+        <v>0.0008486954412097924</v>
       </c>
     </row>
     <row r="234">
@@ -14253,13 +14253,13 @@
       </c>
       <c r="N234" t="inlineStr"/>
       <c r="O234" t="n">
-        <v>0.007449179674338977</v>
+        <v>0.00464629283933546</v>
       </c>
       <c r="P234" t="n">
         <v>0.00614</v>
       </c>
       <c r="Q234" t="n">
-        <v>0.00335213085345254</v>
+        <v>0.002090831777700957</v>
       </c>
     </row>
     <row r="235">
@@ -14312,13 +14312,13 @@
       </c>
       <c r="N235" t="inlineStr"/>
       <c r="O235" t="n">
-        <v>0.005177459883047571</v>
+        <v>0.004094366276667443</v>
       </c>
       <c r="P235" t="n">
         <v>0.0083</v>
       </c>
       <c r="Q235" t="n">
-        <v>0.0003468898121641873</v>
+        <v>0.0002743225405367187</v>
       </c>
     </row>
     <row r="236">
@@ -14371,13 +14371,13 @@
       </c>
       <c r="N236" t="inlineStr"/>
       <c r="O236" t="n">
-        <v>0.002527291853644315</v>
+        <v>0.002544128237007901</v>
       </c>
       <c r="P236" t="n">
         <v>0.0113</v>
       </c>
       <c r="Q236" t="n">
-        <v>0.005534769159481049</v>
+        <v>0.005571640839047303</v>
       </c>
     </row>
     <row r="237">
@@ -14430,13 +14430,13 @@
       </c>
       <c r="N237" t="inlineStr"/>
       <c r="O237" t="n">
-        <v>0.001776503119977456</v>
+        <v>0.002001284777697407</v>
       </c>
       <c r="P237" t="n">
         <v>0.0151</v>
       </c>
       <c r="Q237" t="n">
-        <v>0.002114038712773172</v>
+        <v>0.002381528885459914</v>
       </c>
     </row>
     <row r="238">
@@ -14489,13 +14489,13 @@
       </c>
       <c r="N238" t="inlineStr"/>
       <c r="O238" t="n">
-        <v>0.002788307743192008</v>
+        <v>0.003317971140805228</v>
       </c>
       <c r="P238" t="n">
         <v>0.0022</v>
       </c>
       <c r="Q238" t="n">
-        <v>0.00365268314358153</v>
+        <v>0.004346542194454848</v>
       </c>
     </row>
     <row r="239">
@@ -14548,13 +14548,13 @@
       </c>
       <c r="N239" t="inlineStr"/>
       <c r="O239" t="n">
-        <v>0.001816752748337237</v>
+        <v>0.002310639725833329</v>
       </c>
       <c r="P239" t="n">
         <v>0.00333</v>
       </c>
       <c r="Q239" t="n">
-        <v>0.02198270825488057</v>
+        <v>0.02795874068258328</v>
       </c>
     </row>
     <row r="240">
@@ -14607,13 +14607,13 @@
       </c>
       <c r="N240" t="inlineStr"/>
       <c r="O240" t="n">
-        <v>0.0008961849378042795</v>
+        <v>0.001331053362068926</v>
       </c>
       <c r="P240" t="n">
         <v>0.00491</v>
       </c>
       <c r="Q240" t="n">
-        <v>0.0006452531552190812</v>
+        <v>0.0009583584206896269</v>
       </c>
     </row>
     <row r="241">
@@ -14666,13 +14666,13 @@
       </c>
       <c r="N241" t="inlineStr"/>
       <c r="O241" t="n">
-        <v>0.00070589661210616</v>
+        <v>0.001052431839143544</v>
       </c>
       <c r="P241" t="n">
         <v>0.00707</v>
       </c>
       <c r="Q241" t="n">
-        <v>0.0005710703591938835</v>
+        <v>0.0008514173578671269</v>
       </c>
     </row>
     <row r="242">
@@ -14725,13 +14725,13 @@
       </c>
       <c r="N242" t="inlineStr"/>
       <c r="O242" t="n">
-        <v>0.004895437488599226</v>
+        <v>0.004895698330566679</v>
       </c>
       <c r="P242" t="n">
         <v>0.00155</v>
       </c>
       <c r="Q242" t="n">
-        <v>0.005580798737003117</v>
+        <v>0.005581096096846013</v>
       </c>
     </row>
     <row r="243">
@@ -14784,13 +14784,13 @@
       </c>
       <c r="N243" t="inlineStr"/>
       <c r="O243" t="n">
-        <v>0.003277930888588386</v>
+        <v>0.003696737779468517</v>
       </c>
       <c r="P243" t="n">
         <v>0.00225</v>
       </c>
       <c r="Q243" t="n">
-        <v>0.004851337715110812</v>
+        <v>0.005471171913613405</v>
       </c>
     </row>
     <row r="244">
@@ -14843,13 +14843,13 @@
       </c>
       <c r="N244" t="inlineStr"/>
       <c r="O244" t="n">
-        <v>0.001612594361582139</v>
+        <v>0.002173571407581748</v>
       </c>
       <c r="P244" t="n">
         <v>0.0032</v>
       </c>
       <c r="Q244" t="n">
-        <v>0.0001951239177514388</v>
+        <v>0.0002630021403173915</v>
       </c>
     </row>
     <row r="245">
@@ -14902,13 +14902,13 @@
       </c>
       <c r="N245" t="inlineStr"/>
       <c r="O245" t="n">
-        <v>0.001227528808251099</v>
+        <v>0.001707322563982491</v>
       </c>
       <c r="P245" t="n">
         <v>0.00445</v>
       </c>
       <c r="Q245" t="n">
-        <v>2.234102431017e-05</v>
+        <v>3.107327066448133e-05</v>
       </c>
     </row>
     <row r="246">
@@ -14961,13 +14961,13 @@
       </c>
       <c r="N246" t="inlineStr"/>
       <c r="O246" t="n">
-        <v>0.009663414572809351</v>
+        <v>0.007513324365700336</v>
       </c>
       <c r="P246" t="n">
         <v>0.00193</v>
       </c>
       <c r="Q246" t="n">
-        <v>2.580131690940097e-05</v>
+        <v>2.00605760564199e-05</v>
       </c>
     </row>
     <row r="247">
@@ -15020,13 +15020,13 @@
       </c>
       <c r="N247" t="inlineStr"/>
       <c r="O247" t="n">
-        <v>0.006585019148045773</v>
+        <v>0.006128798725798548</v>
       </c>
       <c r="P247" t="n">
         <v>0.00264</v>
       </c>
       <c r="Q247" t="n">
-        <v>0.003108129037877605</v>
+        <v>0.002892792998576914</v>
       </c>
     </row>
     <row r="248">
@@ -15079,13 +15079,13 @@
       </c>
       <c r="N248" t="inlineStr"/>
       <c r="O248" t="n">
-        <v>0.003199472529751527</v>
+        <v>0.003646712034374801</v>
       </c>
       <c r="P248" t="n">
         <v>0.00366</v>
       </c>
       <c r="Q248" t="n">
-        <v>0.0003263461980346557</v>
+        <v>0.0003719646275062296</v>
       </c>
     </row>
     <row r="249">
@@ -15138,13 +15138,13 @@
       </c>
       <c r="N249" t="inlineStr"/>
       <c r="O249" t="n">
-        <v>0.002395749246091375</v>
+        <v>0.002929769994494624</v>
       </c>
       <c r="P249" t="n">
         <v>0.00513</v>
       </c>
       <c r="Q249" t="n">
-        <v>0.002898856587770563</v>
+        <v>0.003545021693338495</v>
       </c>
     </row>
     <row r="250">
@@ -15197,13 +15197,13 @@
       </c>
       <c r="N250" t="inlineStr"/>
       <c r="O250" t="n">
-        <v>0.02093715887285801</v>
+        <v>0.01278355357341285</v>
       </c>
       <c r="P250" t="n">
         <v>0.0027</v>
       </c>
       <c r="Q250" t="n">
-        <v>0.001507475438845777</v>
+        <v>0.0009204158572857255</v>
       </c>
     </row>
     <row r="251">
@@ -15256,13 +15256,13 @@
       </c>
       <c r="N251" t="inlineStr"/>
       <c r="O251" t="n">
-        <v>0.01406829295178725</v>
+        <v>0.01070974685773326</v>
       </c>
       <c r="P251" t="n">
         <v>0.00366</v>
       </c>
       <c r="Q251" t="n">
-        <v>0.005317814735775583</v>
+        <v>0.004048284312223173</v>
       </c>
     </row>
     <row r="252">
@@ -15315,13 +15315,13 @@
       </c>
       <c r="N252" t="inlineStr"/>
       <c r="O252" t="n">
-        <v>0.006394269406313081</v>
+        <v>0.006100082835094001</v>
       </c>
       <c r="P252" t="n">
         <v>0.00505</v>
       </c>
       <c r="Q252" t="n">
-        <v>0.002685593150651494</v>
+        <v>0.00256203479073948</v>
       </c>
     </row>
     <row r="253">
@@ -15374,13 +15374,13 @@
       </c>
       <c r="N253" t="inlineStr"/>
       <c r="O253" t="n">
-        <v>0.004546628140991281</v>
+        <v>0.004852799205061428</v>
       </c>
       <c r="P253" t="n">
         <v>0.00658</v>
       </c>
       <c r="Q253" t="n">
-        <v>0.01623146246333887</v>
+        <v>0.0173244931620693</v>
       </c>
     </row>
     <row r="254">
@@ -15433,13 +15433,13 @@
       </c>
       <c r="N254" t="inlineStr"/>
       <c r="O254" t="n">
-        <v>0.007697173716015901</v>
+        <v>0.008947884979497847</v>
       </c>
       <c r="P254" t="n">
         <v>0.00179</v>
       </c>
       <c r="Q254" t="n">
-        <v>0.004949282699398224</v>
+        <v>0.005753490041817116</v>
       </c>
     </row>
     <row r="255">
@@ -15492,13 +15492,13 @@
       </c>
       <c r="N255" t="inlineStr"/>
       <c r="O255" t="n">
-        <v>0.005036714753241646</v>
+        <v>0.006176822756620376</v>
       </c>
       <c r="P255" t="n">
         <v>0.00271</v>
       </c>
       <c r="Q255" t="n">
-        <v>0.00342496603220432</v>
+        <v>0.004200239474501856</v>
       </c>
     </row>
     <row r="256">
@@ -15551,13 +15551,13 @@
       </c>
       <c r="N256" t="inlineStr"/>
       <c r="O256" t="n">
-        <v>0.002439245280217746</v>
+        <v>0.003405059836600483</v>
       </c>
       <c r="P256" t="n">
         <v>0.00392</v>
       </c>
       <c r="Q256" t="n">
-        <v>0.008391003763949047</v>
+        <v>0.01171340583790566</v>
       </c>
     </row>
     <row r="257">
@@ -15610,13 +15610,13 @@
       </c>
       <c r="N257" t="inlineStr"/>
       <c r="O257" t="n">
-        <v>0.001855957819964982</v>
+        <v>0.002658412067700562</v>
       </c>
       <c r="P257" t="n">
         <v>0.00537</v>
       </c>
       <c r="Q257" t="n">
-        <v>0.00950250403822071</v>
+        <v>0.01361106978662688</v>
       </c>
     </row>
     <row r="258">
@@ -15669,13 +15669,13 @@
       </c>
       <c r="N258" t="inlineStr"/>
       <c r="O258" t="n">
-        <v>0.01400136571633435</v>
+        <v>0.01382353602193938</v>
       </c>
       <c r="P258" t="n">
         <v>0.00127</v>
       </c>
       <c r="Q258" t="n">
-        <v>0.001988193931719478</v>
+        <v>0.001962942115115392</v>
       </c>
     </row>
     <row r="259">
@@ -15728,13 +15728,13 @@
       </c>
       <c r="N259" t="inlineStr"/>
       <c r="O259" t="n">
-        <v>0.009087307932966242</v>
+        <v>0.009974050316928294</v>
       </c>
       <c r="P259" t="n">
         <v>0.00181</v>
       </c>
       <c r="Q259" t="n">
-        <v>0.01399445421676801</v>
+        <v>0.01536003748806957</v>
       </c>
     </row>
     <row r="260">
@@ -15787,13 +15787,13 @@
       </c>
       <c r="N260" t="inlineStr"/>
       <c r="O260" t="n">
-        <v>0.00446115360113861</v>
+        <v>0.005684574918223991</v>
       </c>
       <c r="P260" t="n">
         <v>0.00254</v>
       </c>
       <c r="Q260" t="n">
-        <v>4.33178014670559e-05</v>
+        <v>5.519722245595496e-05</v>
       </c>
     </row>
     <row r="261">
@@ -15846,13 +15846,13 @@
       </c>
       <c r="N261" t="inlineStr"/>
       <c r="O261" t="n">
-        <v>0.003314734304523085</v>
+        <v>0.004446202546411256</v>
       </c>
       <c r="P261" t="n">
         <v>0.00343</v>
       </c>
       <c r="Q261" t="n">
-        <v>0.001441909422467542</v>
+        <v>0.001934098107688896</v>
       </c>
     </row>
     <row r="262">
@@ -15905,13 +15905,13 @@
       </c>
       <c r="N262" t="inlineStr"/>
       <c r="O262" t="n">
-        <v>0.0290707632608387</v>
+        <v>0.02253128797041109</v>
       </c>
       <c r="P262" t="n">
         <v>0.00162</v>
       </c>
       <c r="Q262" t="n">
-        <v>0.01459352315694103</v>
+        <v>0.01131070656114637</v>
       </c>
     </row>
     <row r="263">
@@ -15964,13 +15964,13 @@
       </c>
       <c r="N263" t="inlineStr"/>
       <c r="O263" t="n">
-        <v>0.01904209698468584</v>
+        <v>0.0173494650781946</v>
       </c>
       <c r="P263" t="n">
         <v>0.00218</v>
       </c>
       <c r="Q263" t="n">
-        <v>0.02418346317055102</v>
+        <v>0.02203382064930715</v>
       </c>
     </row>
     <row r="264">
@@ -16023,13 +16023,13 @@
       </c>
       <c r="N264" t="inlineStr"/>
       <c r="O264" t="n">
-        <v>0.009028137269294861</v>
+        <v>0.009833860209649404</v>
       </c>
       <c r="P264" t="n">
         <v>0.00293</v>
       </c>
       <c r="Q264" t="n">
-        <v>0.001191714119546922</v>
+        <v>0.001298069547673721</v>
       </c>
     </row>
     <row r="265">
@@ -16082,13 +16082,13 @@
       </c>
       <c r="N265" t="inlineStr"/>
       <c r="O265" t="n">
-        <v>0.006436449608851005</v>
+        <v>0.007690639472549319</v>
       </c>
       <c r="P265" t="n">
         <v>0.00388</v>
       </c>
       <c r="Q265" t="n">
-        <v>0.0009525945421099487</v>
+        <v>0.001138214641937299</v>
       </c>
     </row>
     <row r="266">
@@ -16141,13 +16141,13 @@
       </c>
       <c r="N266" t="inlineStr"/>
       <c r="O266" t="n">
-        <v>0.06660064437819536</v>
+        <v>0.03966452055273256</v>
       </c>
       <c r="P266" t="n">
         <v>0.00235</v>
       </c>
       <c r="Q266" t="n">
-        <v>0.07059668304088709</v>
+        <v>0.04204439178589652</v>
       </c>
     </row>
     <row r="267">
@@ -16200,13 +16200,13 @@
       </c>
       <c r="N267" t="inlineStr"/>
       <c r="O267" t="n">
-        <v>0.04256435714088837</v>
+        <v>0.03158898880903015</v>
       </c>
       <c r="P267" t="n">
         <v>0.00309</v>
       </c>
       <c r="Q267" t="n">
-        <v>0.006640039713978587</v>
+        <v>0.004927882254208704</v>
       </c>
     </row>
     <row r="268">
@@ -16259,13 +16259,13 @@
       </c>
       <c r="N268" t="inlineStr"/>
       <c r="O268" t="n">
-        <v>0.0191535755671635</v>
+        <v>0.01749234500404668</v>
       </c>
       <c r="P268" t="n">
         <v>0.00403</v>
       </c>
       <c r="Q268" t="n">
-        <v>0.01260305272319358</v>
+        <v>0.01150996301266271</v>
       </c>
     </row>
     <row r="269">
@@ -16318,13 +16318,13 @@
       </c>
       <c r="N269" t="inlineStr"/>
       <c r="O269" t="n">
-        <v>0.01258605121718783</v>
+        <v>0.01320111605979608</v>
       </c>
       <c r="P269" t="n">
         <v>0.00529</v>
       </c>
       <c r="Q269" t="n">
-        <v>0.001875321631360987</v>
+        <v>0.001966966292909616</v>
       </c>
     </row>
     <row r="270">
@@ -16377,13 +16377,13 @@
       </c>
       <c r="N270" t="inlineStr"/>
       <c r="O270" t="n">
-        <v>0.01956526455975705</v>
+        <v>0.02291508886623732</v>
       </c>
       <c r="P270" t="n">
         <v>0.00183</v>
       </c>
       <c r="Q270" t="n">
-        <v>0.01745221598730329</v>
+        <v>0.02044025926868369</v>
       </c>
     </row>
     <row r="271">
@@ -16436,13 +16436,13 @@
       </c>
       <c r="N271" t="inlineStr"/>
       <c r="O271" t="n">
-        <v>0.01243807286798406</v>
+        <v>0.01515497086333068</v>
       </c>
       <c r="P271" t="n">
         <v>0.00268</v>
       </c>
       <c r="Q271" t="n">
-        <v>0.0007761357469622054</v>
+        <v>0.0009456701818718341</v>
       </c>
     </row>
     <row r="272">
@@ -16495,13 +16495,13 @@
       </c>
       <c r="N272" t="inlineStr"/>
       <c r="O272" t="n">
-        <v>0.006009321244287353</v>
+        <v>0.008196560928124662</v>
       </c>
       <c r="P272" t="n">
         <v>0.00368</v>
       </c>
       <c r="Q272" t="n">
-        <v>0.00286043691228078</v>
+        <v>0.003901563001787339</v>
       </c>
     </row>
     <row r="273">
@@ -16554,13 +16554,13 @@
       </c>
       <c r="N273" t="inlineStr"/>
       <c r="O273" t="n">
-        <v>0.004450138120703818</v>
+        <v>0.006372755782964204</v>
       </c>
       <c r="P273" t="n">
         <v>0.00487</v>
       </c>
       <c r="Q273" t="n">
-        <v>0.007876744473645758</v>
+        <v>0.01127977773584664</v>
       </c>
     </row>
     <row r="274">
@@ -16613,13 +16613,13 @@
       </c>
       <c r="N274" t="inlineStr"/>
       <c r="O274" t="n">
-        <v>0.03619556141247765</v>
+        <v>0.03622696693219001</v>
       </c>
       <c r="P274" t="n">
         <v>0.00129</v>
       </c>
       <c r="Q274" t="n">
-        <v>0.2215168358443632</v>
+        <v>0.2217090376250028</v>
       </c>
     </row>
     <row r="275">
@@ -16672,13 +16672,13 @@
       </c>
       <c r="N275" t="inlineStr"/>
       <c r="O275" t="n">
-        <v>0.02322605562029208</v>
+        <v>0.02538079969379036</v>
       </c>
       <c r="P275" t="n">
         <v>0.0018</v>
       </c>
       <c r="Q275" t="n">
-        <v>0.01370337281597232</v>
+        <v>0.01497467181933631</v>
       </c>
     </row>
     <row r="276">
@@ -16731,13 +16731,13 @@
       </c>
       <c r="N276" t="inlineStr"/>
       <c r="O276" t="n">
-        <v>0.01106162419310578</v>
+        <v>0.01384396041956525</v>
       </c>
       <c r="P276" t="n">
         <v>0.00244</v>
       </c>
       <c r="Q276" t="n">
-        <v>0.004479957798207842</v>
+        <v>0.005606803969923925</v>
       </c>
     </row>
     <row r="277">
@@ -16790,13 +16790,13 @@
       </c>
       <c r="N277" t="inlineStr"/>
       <c r="O277" t="n">
-        <v>0.008077882375781191</v>
+        <v>0.01085807395510895</v>
       </c>
       <c r="P277" t="n">
         <v>0.00318</v>
       </c>
       <c r="Q277" t="n">
-        <v>9.208785908390558e-05</v>
+        <v>0.0001237820430882421</v>
       </c>
     </row>
     <row r="278">
@@ -16849,13 +16849,13 @@
       </c>
       <c r="N278" t="inlineStr"/>
       <c r="O278" t="n">
-        <v>0.07765234037685671</v>
+        <v>0.0608391993838743</v>
       </c>
       <c r="P278" t="n">
         <v>0.0017</v>
       </c>
       <c r="Q278" t="n">
-        <v>0.006864466889314134</v>
+        <v>0.005378185225534488</v>
       </c>
     </row>
     <row r="279">
@@ -16908,13 +16908,13 @@
       </c>
       <c r="N279" t="inlineStr"/>
       <c r="O279" t="n">
-        <v>0.04968632448701909</v>
+        <v>0.04522195108499325</v>
       </c>
       <c r="P279" t="n">
         <v>0.00223</v>
       </c>
       <c r="Q279" t="n">
-        <v>0.005366123044598062</v>
+        <v>0.004883970717179271</v>
       </c>
     </row>
     <row r="280">
@@ -16967,13 +16967,13 @@
       </c>
       <c r="N280" t="inlineStr"/>
       <c r="O280" t="n">
-        <v>0.02271235676374218</v>
+        <v>0.02444760644933099</v>
       </c>
       <c r="P280" t="n">
         <v>0.00286</v>
       </c>
       <c r="Q280" t="n">
-        <v>0.004565183709512178</v>
+        <v>0.00491396889631553</v>
       </c>
     </row>
     <row r="281">
@@ -17026,13 +17026,13 @@
       </c>
       <c r="N281" t="inlineStr"/>
       <c r="O281" t="n">
-        <v>0.01578080624856806</v>
+        <v>0.01900701194283123</v>
       </c>
       <c r="P281" t="n">
         <v>0.00377</v>
       </c>
       <c r="Q281" t="n">
-        <v>0.006296541693178658</v>
+        <v>0.007583797765189663</v>
       </c>
     </row>
     <row r="282">
@@ -17085,13 +17085,13 @@
       </c>
       <c r="N282" t="inlineStr"/>
       <c r="O282" t="n">
-        <v>0.1880870024810397</v>
+        <v>0.1118614087375267</v>
       </c>
       <c r="P282" t="n">
         <v>0.00252</v>
       </c>
       <c r="Q282" t="n">
-        <v>0.1117236794737376</v>
+        <v>0.06644567679009084</v>
       </c>
     </row>
     <row r="283">
@@ -17144,13 +17144,13 @@
       </c>
       <c r="N283" t="inlineStr"/>
       <c r="O283" t="n">
-        <v>0.1164634749383744</v>
+        <v>0.08577877940703865</v>
       </c>
       <c r="P283" t="n">
         <v>0.00318</v>
       </c>
       <c r="Q283" t="n">
-        <v>0.02026464463927714</v>
+        <v>0.01492550761682472</v>
       </c>
     </row>
     <row r="284">
@@ -17203,13 +17203,13 @@
       </c>
       <c r="N284" t="inlineStr"/>
       <c r="O284" t="n">
-        <v>0.05005415691948929</v>
+        <v>0.04515897061523232</v>
       </c>
       <c r="P284" t="n">
         <v>0.00398</v>
       </c>
       <c r="Q284" t="n">
-        <v>0.01066153542385122</v>
+        <v>0.009618860741044484</v>
       </c>
     </row>
     <row r="285">
@@ -17262,13 +17262,13 @@
       </c>
       <c r="N285" t="inlineStr"/>
       <c r="O285" t="n">
-        <v>0.0312799188995395</v>
+        <v>0.0332153839065322</v>
       </c>
       <c r="P285" t="n">
         <v>0.0051</v>
       </c>
       <c r="Q285" t="n">
-        <v>0.00147328418016831</v>
+        <v>0.001564444581997667</v>
       </c>
     </row>
     <row r="286">
@@ -17321,13 +17321,13 @@
       </c>
       <c r="N286" t="inlineStr"/>
       <c r="O286" t="n">
-        <v>0.03965203014510627</v>
+        <v>0.04991554412081513</v>
       </c>
       <c r="P286" t="n">
         <v>0.00242</v>
       </c>
       <c r="Q286" t="n">
-        <v>0.0006106412642346365</v>
+        <v>0.000768699379460553</v>
       </c>
     </row>
     <row r="287">
@@ -17380,13 +17380,13 @@
       </c>
       <c r="N287" t="inlineStr"/>
       <c r="O287" t="n">
-        <v>0.02521831482496364</v>
+        <v>0.03234499271894782</v>
       </c>
       <c r="P287" t="n">
         <v>0.00335</v>
       </c>
       <c r="Q287" t="n">
-        <v>0.005976740613516383</v>
+        <v>0.007665763274390633</v>
       </c>
     </row>
     <row r="288">
@@ -17439,13 +17439,13 @@
       </c>
       <c r="N288" t="inlineStr"/>
       <c r="O288" t="n">
-        <v>0.01212588874817676</v>
+        <v>0.01737181888066733</v>
       </c>
       <c r="P288" t="n">
         <v>0.00456</v>
       </c>
       <c r="Q288" t="n">
-        <v>0.000742104391388418</v>
+        <v>0.001063155315496841</v>
       </c>
     </row>
     <row r="289">
@@ -17498,13 +17498,13 @@
       </c>
       <c r="N289" t="inlineStr"/>
       <c r="O289" t="n">
-        <v>0.009030578880895555</v>
+        <v>0.01389389941645994</v>
       </c>
       <c r="P289" t="n">
         <v>0.00571</v>
       </c>
       <c r="Q289" t="n">
-        <v>0.009301496247322422</v>
+        <v>0.01431071639895374</v>
       </c>
     </row>
     <row r="290">
@@ -17557,13 +17557,13 @@
       </c>
       <c r="N290" t="inlineStr"/>
       <c r="O290" t="n">
-        <v>0.07285260125803308</v>
+        <v>0.07825911664046969</v>
       </c>
       <c r="P290" t="n">
         <v>0.00175</v>
       </c>
       <c r="Q290" t="n">
-        <v>0.0284125144906329</v>
+        <v>0.03052105548978318</v>
       </c>
     </row>
     <row r="291">
@@ -17616,13 +17616,13 @@
       </c>
       <c r="N291" t="inlineStr"/>
       <c r="O291" t="n">
-        <v>0.0466801295924421</v>
+        <v>0.05388317295568616</v>
       </c>
       <c r="P291" t="n">
         <v>0.00233</v>
       </c>
       <c r="Q291" t="n">
-        <v>0.02586079179421292</v>
+        <v>0.02985127781745013</v>
       </c>
     </row>
     <row r="292">
@@ -17675,13 +17675,13 @@
       </c>
       <c r="N292" t="inlineStr"/>
       <c r="O292" t="n">
-        <v>0.02201087578696906</v>
+        <v>0.02907281984136943</v>
       </c>
       <c r="P292" t="n">
         <v>0.00303</v>
       </c>
       <c r="Q292" t="n">
-        <v>0.009508698339970633</v>
+        <v>0.01255945817147159</v>
       </c>
     </row>
     <row r="293">
@@ -17734,13 +17734,13 @@
       </c>
       <c r="N293" t="inlineStr"/>
       <c r="O293" t="n">
-        <v>0.0162967019206909</v>
+        <v>0.02355557576787801</v>
       </c>
       <c r="P293" t="n">
         <v>0.00385</v>
       </c>
       <c r="Q293" t="n">
-        <v>0.002803032730358834</v>
+        <v>0.004051559032075018</v>
       </c>
     </row>
     <row r="294">
@@ -17793,13 +17793,13 @@
       </c>
       <c r="N294" t="inlineStr"/>
       <c r="O294" t="n">
-        <v>0.1570392813751239</v>
+        <v>0.1320376680138291</v>
       </c>
       <c r="P294" t="n">
         <v>0.00233</v>
       </c>
       <c r="Q294" t="n">
-        <v>0.01071007898978345</v>
+        <v>0.009004968958543146</v>
       </c>
     </row>
     <row r="295">
@@ -17852,13 +17852,13 @@
       </c>
       <c r="N295" t="inlineStr"/>
       <c r="O295" t="n">
-        <v>0.0974350450726129</v>
+        <v>0.0942808317085078</v>
       </c>
       <c r="P295" t="n">
         <v>0.00294</v>
       </c>
       <c r="Q295" t="n">
-        <v>0.004491755577847455</v>
+        <v>0.00434634634176221</v>
       </c>
     </row>
     <row r="296">
@@ -17911,13 +17911,13 @@
       </c>
       <c r="N296" t="inlineStr"/>
       <c r="O296" t="n">
-        <v>0.04512801442294328</v>
+        <v>0.05161481605585126</v>
       </c>
       <c r="P296" t="n">
         <v>0.00365</v>
       </c>
       <c r="Q296" t="n">
-        <v>0.0007400994365362698</v>
+        <v>0.0008464829833159606</v>
       </c>
     </row>
     <row r="297">
@@ -17970,13 +17970,13 @@
       </c>
       <c r="N297" t="inlineStr"/>
       <c r="O297" t="n">
-        <v>0.03102519199122662</v>
+        <v>0.04031635596699092</v>
       </c>
       <c r="P297" t="n">
         <v>0.00457</v>
       </c>
       <c r="Q297" t="n">
-        <v>0.0002351709552934978</v>
+        <v>0.0003055979782297912</v>
       </c>
     </row>
     <row r="298">
@@ -18029,13 +18029,13 @@
       </c>
       <c r="N298" t="inlineStr"/>
       <c r="O298" t="n">
-        <v>0.3879014318061104</v>
+        <v>0.2470463037512</v>
       </c>
       <c r="P298" t="n">
         <v>0.00368</v>
       </c>
       <c r="Q298" t="n">
-        <v>0.1039575837240376</v>
+        <v>0.06620840940532159</v>
       </c>
     </row>
     <row r="299">
@@ -18088,13 +18088,13 @@
       </c>
       <c r="N299" t="inlineStr"/>
       <c r="O299" t="n">
-        <v>0.2309690644214047</v>
+        <v>0.1816662892283512</v>
       </c>
       <c r="P299" t="n">
         <v>0.00442</v>
       </c>
       <c r="Q299" t="n">
-        <v>0.006028292581398665</v>
+        <v>0.004741490148859968</v>
       </c>
     </row>
     <row r="300">
@@ -18147,13 +18147,13 @@
       </c>
       <c r="N300" t="inlineStr"/>
       <c r="O300" t="n">
-        <v>0.09768602223609958</v>
+        <v>0.09446626097024233</v>
       </c>
       <c r="P300" t="n">
         <v>0.00538</v>
       </c>
       <c r="Q300" t="n">
-        <v>0.0239330754478444</v>
+        <v>0.02314423393770937</v>
       </c>
     </row>
     <row r="301">
@@ -18206,13 +18206,13 @@
       </c>
       <c r="N301" t="inlineStr"/>
       <c r="O301" t="n">
-        <v>0.06160603461283874</v>
+        <v>0.07060029998575908</v>
       </c>
       <c r="P301" t="n">
         <v>0.00646</v>
       </c>
       <c r="Q301" t="n">
-        <v>0.001250602502640626</v>
+        <v>0.001433186089710909</v>
       </c>
     </row>
     <row r="302">
@@ -18265,13 +18265,13 @@
       </c>
       <c r="N302" t="inlineStr"/>
       <c r="O302" t="n">
-        <v>0.07406326957638626</v>
+        <v>0.1024785210835395</v>
       </c>
       <c r="P302" t="n">
         <v>0.00882</v>
       </c>
       <c r="Q302" t="n">
-        <v>0.002947718129140173</v>
+        <v>0.004078645139124874</v>
       </c>
     </row>
     <row r="303">
@@ -18324,13 +18324,13 @@
       </c>
       <c r="N303" t="inlineStr"/>
       <c r="O303" t="n">
-        <v>0.04655501720215094</v>
+        <v>0.06411041579255362</v>
       </c>
       <c r="P303" t="n">
         <v>0.0119</v>
       </c>
       <c r="Q303" t="n">
-        <v>0.07029807597524791</v>
+        <v>0.09680672784675597</v>
       </c>
     </row>
     <row r="304">
@@ -18383,13 +18383,13 @@
       </c>
       <c r="N304" t="inlineStr"/>
       <c r="O304" t="n">
-        <v>0.02325237707556806</v>
+        <v>0.03547051184878555</v>
       </c>
       <c r="P304" t="n">
         <v>0.0163</v>
       </c>
       <c r="Q304" t="n">
-        <v>0.02697275740765895</v>
+        <v>0.04114579374459123</v>
       </c>
     </row>
     <row r="305">
@@ -18442,13 +18442,13 @@
       </c>
       <c r="N305" t="inlineStr"/>
       <c r="O305" t="n">
-        <v>0.01815119700571413</v>
+        <v>0.0299370306723503</v>
       </c>
       <c r="P305" t="n">
         <v>0.019</v>
       </c>
       <c r="Q305" t="n">
-        <v>0.0566317346578281</v>
+        <v>0.09340353569773294</v>
       </c>
     </row>
     <row r="306">
@@ -18501,13 +18501,13 @@
       </c>
       <c r="N306" t="inlineStr"/>
       <c r="O306" t="n">
-        <v>0.1292614684604012</v>
+        <v>0.1542774094892235</v>
       </c>
       <c r="P306" t="n">
         <v>0.0064</v>
       </c>
       <c r="Q306" t="n">
-        <v>0.02675712397130304</v>
+        <v>0.03193542376426926</v>
       </c>
     </row>
     <row r="307">
@@ -18560,13 +18560,13 @@
       </c>
       <c r="N307" t="inlineStr"/>
       <c r="O307" t="n">
-        <v>0.08235817688050402</v>
+        <v>0.1031738940274355</v>
       </c>
       <c r="P307" t="n">
         <v>0.00813</v>
       </c>
       <c r="Q307" t="n">
-        <v>0.06613361603504474</v>
+        <v>0.08284863690403073</v>
       </c>
     </row>
     <row r="308">
@@ -18619,13 +18619,13 @@
       </c>
       <c r="N308" t="inlineStr"/>
       <c r="O308" t="n">
-        <v>0.04049111636663943</v>
+        <v>0.05748746927137791</v>
       </c>
       <c r="P308" t="n">
         <v>0.00997</v>
       </c>
       <c r="Q308" t="n">
-        <v>0.01587251761572266</v>
+        <v>0.02253508795438014</v>
       </c>
     </row>
     <row r="309">
@@ -18678,13 +18678,13 @@
       </c>
       <c r="N309" t="inlineStr"/>
       <c r="O309" t="n">
-        <v>0.03195151928230622</v>
+        <v>0.04950872629808851</v>
       </c>
       <c r="P309" t="n">
         <v>0.0128</v>
       </c>
       <c r="Q309" t="n">
-        <v>0.005879079547944345</v>
+        <v>0.009109605638848285</v>
       </c>
     </row>
     <row r="310">
@@ -18737,13 +18737,13 @@
       </c>
       <c r="N310" t="inlineStr"/>
       <c r="O310" t="n">
-        <v>0.2635104975958105</v>
+        <v>0.2518337237187475</v>
       </c>
       <c r="P310" t="n">
         <v>0.0095</v>
       </c>
       <c r="Q310" t="n">
-        <v>0.1151540874493692</v>
+        <v>0.1100513372650927</v>
       </c>
     </row>
     <row r="311">
@@ -18796,13 +18796,13 @@
       </c>
       <c r="N311" t="inlineStr"/>
       <c r="O311" t="n">
-        <v>0.1640357409175265</v>
+        <v>0.1763047902518776</v>
       </c>
       <c r="P311" t="n">
         <v>0.0117</v>
       </c>
       <c r="Q311" t="n">
-        <v>0.04675018616149505</v>
+        <v>0.05024686522178513</v>
       </c>
     </row>
     <row r="312">
@@ -18855,13 +18855,13 @@
       </c>
       <c r="N312" t="inlineStr"/>
       <c r="O312" t="n">
-        <v>0.07966312436496802</v>
+        <v>0.09951842893244545</v>
       </c>
       <c r="P312" t="n">
         <v>0.0136</v>
       </c>
       <c r="Q312" t="n">
-        <v>0.003170592349725727</v>
+        <v>0.003960833471511329</v>
       </c>
     </row>
     <row r="313">
@@ -18914,13 +18914,13 @@
       </c>
       <c r="N313" t="inlineStr"/>
       <c r="O313" t="n">
-        <v>0.05831572295514918</v>
+        <v>0.08167206096742134</v>
       </c>
       <c r="P313" t="n">
         <v>0.016</v>
       </c>
       <c r="Q313" t="n">
-        <v>0.1195472320580558</v>
+        <v>0.1674277249832137</v>
       </c>
     </row>
     <row r="314">
@@ -18973,13 +18973,13 @@
       </c>
       <c r="N314" t="inlineStr"/>
       <c r="O314" t="n">
-        <v>0.5828194035683287</v>
+        <v>0.4518918819723248</v>
       </c>
       <c r="P314" t="n">
         <v>0.0165</v>
       </c>
       <c r="Q314" t="n">
-        <v>0.4749978139081879</v>
+        <v>0.3682918838074447</v>
       </c>
     </row>
     <row r="315">
@@ -19032,13 +19032,13 @@
       </c>
       <c r="N315" t="inlineStr"/>
       <c r="O315" t="n">
-        <v>0.3581662304295192</v>
+        <v>0.3312030585593526</v>
       </c>
       <c r="P315" t="n">
         <v>0.0185</v>
       </c>
       <c r="Q315" t="n">
-        <v>0.1776504502930415</v>
+        <v>0.1642767170454389</v>
       </c>
     </row>
     <row r="316">
@@ -19091,13 +19091,13 @@
       </c>
       <c r="N316" t="inlineStr"/>
       <c r="O316" t="n">
-        <v>0.1569247903968542</v>
+        <v>0.1726515681508105</v>
       </c>
       <c r="P316" t="n">
         <v>0.0228</v>
       </c>
       <c r="Q316" t="n">
-        <v>0.2557874083468723</v>
+        <v>0.2814220560858212</v>
       </c>
     </row>
     <row r="317">
@@ -19150,13 +19150,13 @@
       </c>
       <c r="N317" t="inlineStr"/>
       <c r="O317" t="n">
-        <v>0.1122957119643</v>
+        <v>0.1408612662689222</v>
       </c>
       <c r="P317" t="n">
         <v>0.0249</v>
       </c>
       <c r="Q317" t="n">
-        <v>0.07029711568965183</v>
+        <v>0.08817915268434529</v>
       </c>
     </row>
     <row r="318">
@@ -19209,13 +19209,13 @@
       </c>
       <c r="N318" t="inlineStr"/>
       <c r="O318" t="n">
-        <v>0.003894100201617928</v>
+        <v>0.004417439190766895</v>
       </c>
       <c r="P318" t="n">
         <v>0.0511</v>
       </c>
       <c r="Q318" t="n">
-        <v>0.001413558373187308</v>
+        <v>0.001603530426248383</v>
       </c>
     </row>
     <row r="319">
@@ -19268,13 +19268,13 @@
       </c>
       <c r="N319" t="inlineStr"/>
       <c r="O319" t="n">
-        <v>0.007078442454773253</v>
+        <v>0.006790587686179325</v>
       </c>
       <c r="P319" t="n">
         <v>0.0302</v>
       </c>
       <c r="Q319" t="n">
-        <v>0.00200319921470083</v>
+        <v>0.001921736315188749</v>
       </c>
     </row>
     <row r="320">
@@ -19327,13 +19327,13 @@
       </c>
       <c r="N320" t="inlineStr"/>
       <c r="O320" t="n">
-        <v>0.004505873975660022</v>
+        <v>0.004894390175353735</v>
       </c>
       <c r="P320" t="n">
         <v>0.0403</v>
       </c>
       <c r="Q320" t="n">
-        <v>0.004595991455173223</v>
+        <v>0.00499227797886081</v>
       </c>
     </row>
     <row r="321">
@@ -19386,13 +19386,13 @@
       </c>
       <c r="N321" t="inlineStr"/>
       <c r="O321" t="n">
-        <v>0.002319624670380716</v>
+        <v>0.002935381253474224</v>
       </c>
       <c r="P321" t="n">
         <v>0.0629</v>
       </c>
       <c r="Q321" t="n">
-        <v>0.0001083264721067795</v>
+        <v>0.0001370823045372463</v>
       </c>
     </row>
     <row r="322">
@@ -19445,13 +19445,13 @@
       </c>
       <c r="N322" t="inlineStr"/>
       <c r="O322" t="n">
-        <v>0.01422423935242911</v>
+        <v>0.01084106181040306</v>
       </c>
       <c r="P322" t="n">
         <v>0.0383</v>
       </c>
       <c r="Q322" t="n">
-        <v>0.01005653722216738</v>
+        <v>0.007664630699954962</v>
       </c>
     </row>
     <row r="323">
@@ -19504,13 +19504,13 @@
       </c>
       <c r="N323" t="inlineStr"/>
       <c r="O323" t="n">
-        <v>0.01010767511663702</v>
+        <v>0.009021293633697098</v>
       </c>
       <c r="P323" t="n">
         <v>0.0576</v>
       </c>
       <c r="Q323" t="n">
-        <v>0.007732371464227322</v>
+        <v>0.00690128962977828</v>
       </c>
     </row>
     <row r="324">
@@ -19563,13 +19563,13 @@
       </c>
       <c r="N324" t="inlineStr"/>
       <c r="O324" t="n">
-        <v>0.03022288160242643</v>
+        <v>0.01822952920511164</v>
       </c>
       <c r="P324" t="n">
         <v>0.0468</v>
       </c>
       <c r="Q324" t="n">
-        <v>0.3052511041845069</v>
+        <v>0.1841182449716276</v>
       </c>
     </row>
     <row r="325">
@@ -19622,13 +19622,13 @@
       </c>
       <c r="N325" t="inlineStr"/>
       <c r="O325" t="n">
-        <v>0.01957329298760493</v>
+        <v>0.01479491524865608</v>
       </c>
       <c r="P325" t="n">
         <v>0.06759999999999999</v>
       </c>
       <c r="Q325" t="n">
-        <v>0.002955567241128344</v>
+        <v>0.002234032202547067</v>
       </c>
     </row>
     <row r="326">
@@ -19681,13 +19681,13 @@
       </c>
       <c r="N326" t="inlineStr"/>
       <c r="O326" t="n">
-        <v>0.008080036487447376</v>
+        <v>0.009116764880655678</v>
       </c>
       <c r="P326" t="n">
         <v>0.00563</v>
       </c>
       <c r="Q326" t="n">
-        <v>0.0009049640865941062</v>
+        <v>0.001021077666633436</v>
       </c>
     </row>
     <row r="327">
@@ -19740,13 +19740,13 @@
       </c>
       <c r="N327" t="inlineStr"/>
       <c r="O327" t="n">
-        <v>0.005387017035794316</v>
+        <v>0.006357968854243099</v>
       </c>
       <c r="P327" t="n">
         <v>0.009390000000000001</v>
       </c>
       <c r="Q327" t="n">
-        <v>0.005096118115861423</v>
+        <v>0.006014638536113972</v>
       </c>
     </row>
     <row r="328">
@@ -19799,13 +19799,13 @@
       </c>
       <c r="N328" t="inlineStr"/>
       <c r="O328" t="n">
-        <v>0.002720286136805905</v>
+        <v>0.003623140868197851</v>
       </c>
       <c r="P328" t="n">
         <v>0.0143</v>
       </c>
       <c r="Q328" t="n">
-        <v>0.001588647103894648</v>
+        <v>0.002115914267027545</v>
       </c>
     </row>
     <row r="329">
@@ -19858,13 +19858,13 @@
       </c>
       <c r="N329" t="inlineStr"/>
       <c r="O329" t="n">
-        <v>0.002062830396312469</v>
+        <v>0.002853638724499097</v>
       </c>
       <c r="P329" t="n">
         <v>0.0218</v>
       </c>
       <c r="Q329" t="n">
-        <v>0.002722936123132459</v>
+        <v>0.003766803116338809</v>
       </c>
     </row>
     <row r="330">
@@ -19917,13 +19917,13 @@
       </c>
       <c r="N330" t="inlineStr"/>
       <c r="O330" t="n">
-        <v>0.01450183391424273</v>
+        <v>0.01402049985070458</v>
       </c>
       <c r="P330" t="n">
         <v>0.00371</v>
       </c>
       <c r="Q330" t="n">
-        <v>0.003799480485531596</v>
+        <v>0.003673370960884601</v>
       </c>
     </row>
     <row r="331">
@@ -19976,13 +19976,13 @@
       </c>
       <c r="N331" t="inlineStr"/>
       <c r="O331" t="n">
-        <v>0.009956615015581035</v>
+        <v>0.01056745657517551</v>
       </c>
       <c r="P331" t="n">
         <v>0.00572</v>
       </c>
       <c r="Q331" t="n">
-        <v>0.01045444576636009</v>
+        <v>0.01109582940393428</v>
       </c>
     </row>
     <row r="332">
@@ -20035,13 +20035,13 @@
       </c>
       <c r="N332" t="inlineStr"/>
       <c r="O332" t="n">
-        <v>0.004846814937781223</v>
+        <v>0.005926157919049343</v>
       </c>
       <c r="P332" t="n">
         <v>0.00843</v>
       </c>
       <c r="Q332" t="n">
-        <v>0.0001560674409965554</v>
+        <v>0.0001908222849933889</v>
       </c>
     </row>
     <row r="333">
@@ -20094,13 +20094,13 @@
       </c>
       <c r="N333" t="inlineStr"/>
       <c r="O333" t="n">
-        <v>0.003701014983789336</v>
+        <v>0.004801538613362442</v>
       </c>
       <c r="P333" t="n">
         <v>0.0128</v>
       </c>
       <c r="Q333" t="n">
-        <v>0.004145136781844056</v>
+        <v>0.005377723246965936</v>
       </c>
     </row>
     <row r="334">
@@ -20153,13 +20153,13 @@
       </c>
       <c r="N334" t="inlineStr"/>
       <c r="O334" t="n">
-        <v>0.03053552989893642</v>
+        <v>0.02353487564165012</v>
       </c>
       <c r="P334" t="n">
         <v>0.00457</v>
       </c>
       <c r="Q334" t="n">
-        <v>0.0005252111142617064</v>
+        <v>0.000404799861036382</v>
       </c>
     </row>
     <row r="335">
@@ -20212,13 +20212,13 @@
       </c>
       <c r="N335" t="inlineStr"/>
       <c r="O335" t="n">
-        <v>0.02079908565395307</v>
+        <v>0.01852768313691861</v>
       </c>
       <c r="P335" t="n">
         <v>0.00662</v>
       </c>
       <c r="Q335" t="n">
-        <v>0.005033378728256644</v>
+        <v>0.004483699319134305</v>
       </c>
     </row>
     <row r="336">
@@ -20271,13 +20271,13 @@
       </c>
       <c r="N336" t="inlineStr"/>
       <c r="O336" t="n">
-        <v>0.0100928338059536</v>
+        <v>0.01061618821672335</v>
       </c>
       <c r="P336" t="n">
         <v>0.00908</v>
       </c>
       <c r="Q336" t="n">
-        <v>0.01473553735669226</v>
+        <v>0.01549963479641609</v>
       </c>
     </row>
     <row r="337">
@@ -20330,13 +20330,13 @@
       </c>
       <c r="N337" t="inlineStr"/>
       <c r="O337" t="n">
-        <v>0.007057520649882415</v>
+        <v>0.008221228601458378</v>
       </c>
       <c r="P337" t="n">
         <v>0.0123</v>
       </c>
       <c r="Q337" t="n">
-        <v>0.01037455535532715</v>
+        <v>0.01208520604414382</v>
       </c>
     </row>
     <row r="338">
@@ -20389,13 +20389,13 @@
       </c>
       <c r="N338" t="inlineStr"/>
       <c r="O338" t="n">
-        <v>0.06988431728614111</v>
+        <v>0.04205826077329646</v>
       </c>
       <c r="P338" t="n">
         <v>0.00646</v>
       </c>
       <c r="Q338" t="n">
-        <v>0.04374758262112434</v>
+        <v>0.02632847124408359</v>
       </c>
     </row>
     <row r="339">
@@ -20448,13 +20448,13 @@
       </c>
       <c r="N339" t="inlineStr"/>
       <c r="O339" t="n">
-        <v>0.04613533406715835</v>
+        <v>0.03410632704733445</v>
       </c>
       <c r="P339" t="n">
         <v>0.00869</v>
       </c>
       <c r="Q339" t="n">
-        <v>0.01882321629940061</v>
+        <v>0.01391538143531245</v>
       </c>
     </row>
     <row r="340">
@@ -20507,13 +20507,13 @@
       </c>
       <c r="N340" t="inlineStr"/>
       <c r="O340" t="n">
-        <v>0.02127376866530027</v>
+        <v>0.01904930165119784</v>
       </c>
       <c r="P340" t="n">
         <v>0.0124</v>
       </c>
       <c r="Q340" t="n">
-        <v>0.02050791299334946</v>
+        <v>0.01836352679175472</v>
       </c>
     </row>
     <row r="341">
@@ -20566,13 +20566,13 @@
       </c>
       <c r="N341" t="inlineStr"/>
       <c r="O341" t="n">
-        <v>0.01424399190797268</v>
+        <v>0.01461310124071344</v>
       </c>
       <c r="P341" t="n">
         <v>0.0186</v>
       </c>
       <c r="Q341" t="n">
-        <v>0.005213301038318001</v>
+        <v>0.00534839505410112</v>
       </c>
     </row>
     <row r="342">
@@ -20625,13 +20625,13 @@
       </c>
       <c r="N342" t="inlineStr"/>
       <c r="O342" t="n">
-        <v>0.01930320820113178</v>
+        <v>0.02212375349262106</v>
       </c>
       <c r="P342" t="n">
         <v>0.00421</v>
       </c>
       <c r="Q342" t="n">
-        <v>0.01474765106566468</v>
+        <v>0.01690254766836249</v>
       </c>
     </row>
     <row r="343">
@@ -20684,13 +20684,13 @@
       </c>
       <c r="N343" t="inlineStr"/>
       <c r="O343" t="n">
-        <v>0.01324266406504685</v>
+        <v>0.0156355562186063</v>
       </c>
       <c r="P343" t="n">
         <v>0.00635</v>
       </c>
       <c r="Q343" t="n">
-        <v>0.0009521475462768689</v>
+        <v>0.001124196492117793</v>
       </c>
     </row>
     <row r="344">
@@ -20743,13 +20743,13 @@
       </c>
       <c r="N344" t="inlineStr"/>
       <c r="O344" t="n">
-        <v>0.006515542528119341</v>
+        <v>0.00858120204308665</v>
       </c>
       <c r="P344" t="n">
         <v>0.00983</v>
       </c>
       <c r="Q344" t="n">
-        <v>0.006776164229244114</v>
+        <v>0.008924450124810116</v>
       </c>
     </row>
     <row r="345">
@@ -20802,13 +20802,13 @@
       </c>
       <c r="N345" t="inlineStr"/>
       <c r="O345" t="n">
-        <v>0.004897500672197109</v>
+        <v>0.006830665606027758</v>
       </c>
       <c r="P345" t="n">
         <v>0.0138</v>
       </c>
       <c r="Q345" t="n">
-        <v>0.00587700080663653</v>
+        <v>0.00819679872723331</v>
       </c>
     </row>
     <row r="346">
@@ -20861,13 +20861,13 @@
       </c>
       <c r="N346" t="inlineStr"/>
       <c r="O346" t="n">
-        <v>0.03621452254737127</v>
+        <v>0.03568567639164563</v>
       </c>
       <c r="P346" t="n">
         <v>0.00286</v>
       </c>
       <c r="Q346" t="n">
-        <v>0.005830538130126774</v>
+        <v>0.005745393899054946</v>
       </c>
     </row>
     <row r="347">
@@ -20920,13 +20920,13 @@
       </c>
       <c r="N347" t="inlineStr"/>
       <c r="O347" t="n">
-        <v>0.02399712179826012</v>
+        <v>0.02560154346674014</v>
       </c>
       <c r="P347" t="n">
         <v>0.00424</v>
       </c>
       <c r="Q347" t="n">
-        <v>0.02070951611189848</v>
+        <v>0.02209413201179674</v>
       </c>
     </row>
     <row r="348">
@@ -20979,13 +20979,13 @@
       </c>
       <c r="N348" t="inlineStr"/>
       <c r="O348" t="n">
-        <v>0.01177639095766739</v>
+        <v>0.01430199642630799</v>
       </c>
       <c r="P348" t="n">
         <v>0.00602</v>
       </c>
       <c r="Q348" t="n">
-        <v>0.008149262542705831</v>
+        <v>0.009896981527005131</v>
       </c>
     </row>
     <row r="349">
@@ -21038,13 +21038,13 @@
       </c>
       <c r="N349" t="inlineStr"/>
       <c r="O349" t="n">
-        <v>0.008673454244735368</v>
+        <v>0.01140481787700836</v>
       </c>
       <c r="P349" t="n">
         <v>0.008460000000000001</v>
       </c>
       <c r="Q349" t="n">
-        <v>0.006357641961391025</v>
+        <v>0.008359731503847131</v>
       </c>
     </row>
     <row r="350">
@@ -21097,13 +21097,13 @@
       </c>
       <c r="N350" t="inlineStr"/>
       <c r="O350" t="n">
-        <v>0.07780308103695452</v>
+        <v>0.06094052477897391</v>
       </c>
       <c r="P350" t="n">
         <v>0.00351</v>
       </c>
       <c r="Q350" t="n">
-        <v>0.02209607501449508</v>
+        <v>0.01730710903722859</v>
       </c>
     </row>
     <row r="351">
@@ -21156,13 +21156,13 @@
       </c>
       <c r="N351" t="inlineStr"/>
       <c r="O351" t="n">
-        <v>0.05083645772036022</v>
+        <v>0.04571551133327605</v>
       </c>
       <c r="P351" t="n">
         <v>0.00489</v>
       </c>
       <c r="Q351" t="n">
-        <v>0.1453922690802302</v>
+        <v>0.1307463624131695</v>
       </c>
     </row>
     <row r="352">
@@ -21215,13 +21215,13 @@
       </c>
       <c r="N352" t="inlineStr"/>
       <c r="O352" t="n">
-        <v>0.02356950189348876</v>
+        <v>0.02491860588602608</v>
       </c>
       <c r="P352" t="n">
         <v>0.00695</v>
       </c>
       <c r="Q352" t="n">
-        <v>0.01246826650165556</v>
+        <v>0.0131819425137078</v>
       </c>
     </row>
     <row r="353">
@@ -21274,13 +21274,13 @@
       </c>
       <c r="N353" t="inlineStr"/>
       <c r="O353" t="n">
-        <v>0.01687640105809678</v>
+        <v>0.02000787338648891</v>
       </c>
       <c r="P353" t="n">
         <v>0.00929</v>
       </c>
       <c r="Q353" t="n">
-        <v>0.01601570460413384</v>
+        <v>0.01898747184377797</v>
       </c>
     </row>
     <row r="354">
@@ -21333,13 +21333,13 @@
       </c>
       <c r="N354" t="inlineStr"/>
       <c r="O354" t="n">
-        <v>0.1847548065655893</v>
+        <v>0.1115069606320664</v>
       </c>
       <c r="P354" t="n">
         <v>0.00495</v>
       </c>
       <c r="Q354" t="n">
-        <v>0.05228561025806176</v>
+        <v>0.03155646985887479</v>
       </c>
     </row>
     <row r="355">
@@ -21392,13 +21392,13 @@
       </c>
       <c r="N355" t="inlineStr"/>
       <c r="O355" t="n">
-        <v>0.118925762247935</v>
+        <v>0.08808071977014059</v>
       </c>
       <c r="P355" t="n">
         <v>0.00691</v>
       </c>
       <c r="Q355" t="n">
-        <v>0.6992834820178579</v>
+        <v>0.5179146322484267</v>
       </c>
     </row>
     <row r="356">
@@ -21451,13 +21451,13 @@
       </c>
       <c r="N356" t="inlineStr"/>
       <c r="O356" t="n">
-        <v>0.05410580567984984</v>
+        <v>0.04830340322481842</v>
       </c>
       <c r="P356" t="n">
         <v>0.009180000000000001</v>
       </c>
       <c r="Q356" t="n">
-        <v>0.01206559466660651</v>
+        <v>0.01077165891913451</v>
       </c>
     </row>
     <row r="357">
@@ -21510,13 +21510,13 @@
       </c>
       <c r="N357" t="inlineStr"/>
       <c r="O357" t="n">
-        <v>0.03490620895508745</v>
+        <v>0.03658486754795182</v>
       </c>
       <c r="P357" t="n">
         <v>0.013</v>
       </c>
       <c r="Q357" t="n">
-        <v>0.08796364656682037</v>
+        <v>0.09219386622083858</v>
       </c>
     </row>
     <row r="358">
@@ -21569,13 +21569,13 @@
       </c>
       <c r="N358" t="inlineStr"/>
       <c r="O358" t="n">
-        <v>0.04126404060054803</v>
+        <v>0.05111551641754913</v>
       </c>
       <c r="P358" t="n">
         <v>0.00505</v>
       </c>
       <c r="Q358" t="n">
-        <v>0.007551319429900289</v>
+        <v>0.009354139504411489</v>
       </c>
     </row>
     <row r="359">
@@ -21628,13 +21628,13 @@
       </c>
       <c r="N359" t="inlineStr"/>
       <c r="O359" t="n">
-        <v>0.02697018328313592</v>
+        <v>0.03375374415921948</v>
       </c>
       <c r="P359" t="n">
         <v>0.00784</v>
       </c>
       <c r="Q359" t="n">
-        <v>0.004342199508584884</v>
+        <v>0.005434352809634336</v>
       </c>
     </row>
     <row r="360">
@@ -21687,13 +21687,13 @@
       </c>
       <c r="N360" t="inlineStr"/>
       <c r="O360" t="n">
-        <v>0.01356991265525775</v>
+        <v>0.0189659207839983</v>
       </c>
       <c r="P360" t="n">
         <v>0.0121</v>
       </c>
       <c r="Q360" t="n">
-        <v>0.0003826715368782687</v>
+        <v>0.000534838966108752</v>
       </c>
     </row>
     <row r="361">
@@ -21746,13 +21746,13 @@
       </c>
       <c r="N361" t="inlineStr"/>
       <c r="O361" t="n">
-        <v>0.01003569507479166</v>
+        <v>0.01521456401210251</v>
       </c>
       <c r="P361" t="n">
         <v>0.0151</v>
       </c>
       <c r="Q361" t="n">
-        <v>0.003151208253484581</v>
+        <v>0.004777373099800189</v>
       </c>
     </row>
     <row r="362">
@@ -21805,13 +21805,13 @@
       </c>
       <c r="N362" t="inlineStr"/>
       <c r="O362" t="n">
-        <v>0.07570390654381937</v>
+        <v>0.0808807570719474</v>
       </c>
       <c r="P362" t="n">
         <v>0.00344</v>
       </c>
       <c r="Q362" t="n">
-        <v>0.02937311573900191</v>
+        <v>0.03138173374391559</v>
       </c>
     </row>
     <row r="363">
@@ -21864,13 +21864,13 @@
       </c>
       <c r="N363" t="inlineStr"/>
       <c r="O363" t="n">
-        <v>0.05062276881920375</v>
+        <v>0.05730741794966742</v>
       </c>
       <c r="P363" t="n">
         <v>0.0049</v>
       </c>
       <c r="Q363" t="n">
-        <v>0.001518683064576112</v>
+        <v>0.001719222538490023</v>
       </c>
     </row>
     <row r="364">
@@ -21923,13 +21923,13 @@
       </c>
       <c r="N364" t="inlineStr"/>
       <c r="O364" t="n">
-        <v>0.02440840443556597</v>
+        <v>0.0315244740943063</v>
       </c>
       <c r="P364" t="n">
         <v>0.00669</v>
       </c>
       <c r="Q364" t="n">
-        <v>0.02313916740491654</v>
+        <v>0.02988520144140237</v>
       </c>
     </row>
     <row r="365">
@@ -21982,13 +21982,13 @@
       </c>
       <c r="N365" t="inlineStr"/>
       <c r="O365" t="n">
-        <v>0.01810156575281472</v>
+        <v>0.02588004154049586</v>
       </c>
       <c r="P365" t="n">
         <v>0.00971</v>
       </c>
       <c r="Q365" t="n">
-        <v>0.004199563254653016</v>
+        <v>0.006004169637395039</v>
       </c>
     </row>
     <row r="366">
@@ -22041,13 +22041,13 @@
       </c>
       <c r="N366" t="inlineStr"/>
       <c r="O366" t="n">
-        <v>0.1615850004024521</v>
+        <v>0.1362165290966622</v>
       </c>
       <c r="P366" t="n">
         <v>0.00444</v>
       </c>
       <c r="Q366" t="n">
-        <v>0.02682311006680705</v>
+        <v>0.02261194383004593</v>
       </c>
     </row>
     <row r="367">
@@ -22100,13 +22100,13 @@
       </c>
       <c r="N367" t="inlineStr"/>
       <c r="O367" t="n">
-        <v>0.1077771229884774</v>
+        <v>0.1032986502849977</v>
       </c>
       <c r="P367" t="n">
         <v>0.00612</v>
       </c>
       <c r="Q367" t="n">
-        <v>0.01028193753310075</v>
+        <v>0.009854691237188776</v>
       </c>
     </row>
     <row r="368">
@@ -22159,13 +22159,13 @@
       </c>
       <c r="N368" t="inlineStr"/>
       <c r="O368" t="n">
-        <v>0.04980635421638495</v>
+        <v>0.05631885269646503</v>
       </c>
       <c r="P368" t="n">
         <v>0.008030000000000001</v>
       </c>
       <c r="Q368" t="n">
-        <v>0.2246266575158961</v>
+        <v>0.2539980256610573</v>
       </c>
     </row>
     <row r="369">
@@ -22218,13 +22218,13 @@
       </c>
       <c r="N369" t="inlineStr"/>
       <c r="O369" t="n">
-        <v>0.03506975527522666</v>
+        <v>0.04487870875183293</v>
       </c>
       <c r="P369" t="n">
         <v>0.0117</v>
       </c>
       <c r="Q369" t="n">
-        <v>4.313579898852879e-05</v>
+        <v>5.52008117647545e-05</v>
       </c>
     </row>
     <row r="370">
@@ -22277,13 +22277,13 @@
       </c>
       <c r="N370" t="inlineStr"/>
       <c r="O370" t="n">
-        <v>0.3918611691031465</v>
+        <v>0.2558040669805415</v>
       </c>
       <c r="P370" t="n">
         <v>0.00676</v>
       </c>
       <c r="Q370" t="n">
-        <v>0.04898264613789331</v>
+        <v>0.03197550837256768</v>
       </c>
     </row>
     <row r="371">
@@ -22336,13 +22336,13 @@
       </c>
       <c r="N371" t="inlineStr"/>
       <c r="O371" t="n">
-        <v>0.2456739288316108</v>
+        <v>0.1950855788676088</v>
       </c>
       <c r="P371" t="n">
         <v>0.00882</v>
       </c>
       <c r="Q371" t="n">
-        <v>0.05060882933931182</v>
+        <v>0.0401876292467274</v>
       </c>
     </row>
     <row r="372">
@@ -22395,13 +22395,13 @@
       </c>
       <c r="N372" t="inlineStr"/>
       <c r="O372" t="n">
-        <v>0.106646412334206</v>
+        <v>0.1030562366937</v>
       </c>
       <c r="P372" t="n">
         <v>0.0111</v>
       </c>
       <c r="Q372" t="n">
-        <v>0.07859840589030981</v>
+        <v>0.07595244644325687</v>
       </c>
     </row>
     <row r="373">
@@ -22454,13 +22454,13 @@
       </c>
       <c r="N373" t="inlineStr"/>
       <c r="O373" t="n">
-        <v>0.07034764667137045</v>
+        <v>0.08015753916993497</v>
       </c>
       <c r="P373" t="n">
         <v>0.0154</v>
       </c>
       <c r="Q373" t="n">
-        <v>0.03517382333568522</v>
+        <v>0.04007876958496748</v>
       </c>
     </row>
     <row r="374">
@@ -22513,13 +22513,13 @@
       </c>
       <c r="N374" t="inlineStr"/>
       <c r="O374" t="n">
-        <v>0.08465760230812505</v>
+        <v>0.1152169954425563</v>
       </c>
       <c r="P374" t="n">
         <v>0.0164</v>
       </c>
       <c r="Q374" t="n">
-        <v>0.3572550817402877</v>
+        <v>0.4862157207675875</v>
       </c>
     </row>
     <row r="375">
@@ -22572,13 +22572,13 @@
       </c>
       <c r="N375" t="inlineStr"/>
       <c r="O375" t="n">
-        <v>0.05349507809363675</v>
+        <v>0.07216176624337374</v>
       </c>
       <c r="P375" t="n">
         <v>0.0271</v>
       </c>
       <c r="Q375" t="n">
-        <v>0.5616983199831859</v>
+        <v>0.7576985455554243</v>
       </c>
     </row>
     <row r="376">
@@ -22631,13 +22631,13 @@
       </c>
       <c r="N376" t="inlineStr"/>
       <c r="O376" t="n">
-        <v>0.02846063275228606</v>
+        <v>0.04259794094636656</v>
       </c>
       <c r="P376" t="n">
         <v>0.0314</v>
       </c>
       <c r="Q376" t="n">
-        <v>0.0295990580623775</v>
+        <v>0.04430185858422122</v>
       </c>
     </row>
     <row r="377">
@@ -22690,13 +22690,13 @@
       </c>
       <c r="N377" t="inlineStr"/>
       <c r="O377" t="n">
-        <v>0.02205446811610675</v>
+        <v>0.03640424090465921</v>
       </c>
       <c r="P377" t="n">
         <v>0.0436</v>
       </c>
       <c r="Q377" t="n">
-        <v>1.583510810736465</v>
+        <v>2.613824496954531</v>
       </c>
     </row>
     <row r="378">
@@ -22749,13 +22749,13 @@
       </c>
       <c r="N378" t="inlineStr"/>
       <c r="O378" t="n">
-        <v>0.1510426737483881</v>
+        <v>0.1771270418600002</v>
       </c>
       <c r="P378" t="n">
         <v>0.0115</v>
       </c>
       <c r="Q378" t="n">
-        <v>0.08941726285904575</v>
+        <v>0.1048592087811201</v>
       </c>
     </row>
     <row r="379">
@@ -22808,13 +22808,13 @@
       </c>
       <c r="N379" t="inlineStr"/>
       <c r="O379" t="n">
-        <v>0.1009552762047843</v>
+        <v>0.1234832352283249</v>
       </c>
       <c r="P379" t="n">
         <v>0.0157</v>
       </c>
       <c r="Q379" t="n">
-        <v>0.03008467230902571</v>
+        <v>0.03679800409804083</v>
       </c>
     </row>
     <row r="380">
@@ -22867,13 +22867,13 @@
       </c>
       <c r="N380" t="inlineStr"/>
       <c r="O380" t="n">
-        <v>0.05278750061818452</v>
+        <v>0.07321789067324504</v>
       </c>
       <c r="P380" t="n">
         <v>0.0218</v>
       </c>
       <c r="Q380" t="n">
-        <v>0.04967303808171163</v>
+        <v>0.06889803512352358</v>
       </c>
     </row>
     <row r="381">
@@ -22926,13 +22926,13 @@
       </c>
       <c r="N381" t="inlineStr"/>
       <c r="O381" t="n">
-        <v>0.04146913878106298</v>
+        <v>0.06403143400041579</v>
       </c>
       <c r="P381" t="n">
         <v>0.029</v>
       </c>
       <c r="Q381" t="n">
-        <v>0.1434832201824779</v>
+        <v>0.2215487616414386</v>
       </c>
     </row>
     <row r="382">
@@ -22985,13 +22985,13 @@
       </c>
       <c r="N382" t="inlineStr"/>
       <c r="O382" t="n">
-        <v>0.292651842911564</v>
+        <v>0.2789499820773795</v>
       </c>
       <c r="P382" t="n">
         <v>0.0159</v>
       </c>
       <c r="Q382" t="n">
-        <v>0.992089747470202</v>
+        <v>0.9456404392423164</v>
       </c>
     </row>
     <row r="383">
@@ -23044,13 +23044,13 @@
       </c>
       <c r="N383" t="inlineStr"/>
       <c r="O383" t="n">
-        <v>0.1946759580840254</v>
+        <v>0.2072576008596274</v>
       </c>
       <c r="P383" t="n">
         <v>0.0213</v>
       </c>
       <c r="Q383" t="n">
-        <v>0.22971763053915</v>
+        <v>0.2445639690143604</v>
       </c>
     </row>
     <row r="384">
@@ -23103,13 +23103,13 @@
       </c>
       <c r="N384" t="inlineStr"/>
       <c r="O384" t="n">
-        <v>0.09307642306504767</v>
+        <v>0.1155661773956305</v>
       </c>
       <c r="P384" t="n">
         <v>0.0292</v>
       </c>
       <c r="Q384" t="n">
-        <v>0.1740529111316391</v>
+        <v>0.2161087517298291</v>
       </c>
     </row>
     <row r="385">
@@ -23162,13 +23162,13 @@
       </c>
       <c r="N385" t="inlineStr"/>
       <c r="O385" t="n">
-        <v>0.07610353926214815</v>
+        <v>0.1056991239754927</v>
       </c>
       <c r="P385" t="n">
         <v>0.0333</v>
       </c>
       <c r="Q385" t="n">
-        <v>0.09284631789982074</v>
+        <v>0.128952931250101</v>
       </c>
     </row>
     <row r="386">
@@ -23221,13 +23221,13 @@
       </c>
       <c r="N386" t="inlineStr"/>
       <c r="O386" t="n">
-        <v>0.6364874677289154</v>
+        <v>0.5018787618749048</v>
       </c>
       <c r="P386" t="n">
         <v>0.0292</v>
       </c>
       <c r="Q386" t="n">
-        <v>0.6116644564874877</v>
+        <v>0.4823054901617835</v>
       </c>
     </row>
     <row r="387">
@@ -23280,13 +23280,13 @@
       </c>
       <c r="N387" t="inlineStr"/>
       <c r="O387" t="n">
-        <v>0.4116223346362543</v>
+        <v>0.3809968065513376</v>
       </c>
       <c r="P387" t="n">
         <v>0.0322</v>
       </c>
       <c r="Q387" t="n">
-        <v>0.4062712442859829</v>
+        <v>0.3760438480661701</v>
       </c>
     </row>
     <row r="388">
@@ -23339,13 +23339,13 @@
       </c>
       <c r="N388" t="inlineStr"/>
       <c r="O388" t="n">
-        <v>0.1669375080165762</v>
+        <v>0.1845477194574889</v>
       </c>
       <c r="P388" t="n">
         <v>0.0484</v>
       </c>
       <c r="Q388" t="n">
-        <v>0.0006911212831886254</v>
+        <v>0.0007640275585540037</v>
       </c>
     </row>
     <row r="389">
@@ -23398,13 +23398,13 @@
       </c>
       <c r="N389" t="inlineStr"/>
       <c r="O389" t="n">
-        <v>0.1337049620484594</v>
+        <v>0.1684437676831316</v>
       </c>
       <c r="P389" t="n">
         <v>0.0476</v>
       </c>
       <c r="Q389" t="n">
-        <v>0.5495273940191683</v>
+        <v>0.6923038851776708</v>
       </c>
     </row>
     <row r="390">
@@ -23457,13 +23457,13 @@
       </c>
       <c r="N390" t="inlineStr"/>
       <c r="O390" t="n">
-        <v>0.02400562462927611</v>
+        <v>0.02748396569768887</v>
       </c>
       <c r="P390" t="n">
         <v>0.0218</v>
       </c>
       <c r="Q390" t="n">
-        <v>0.02138901154468502</v>
+        <v>0.02448821343664078</v>
       </c>
     </row>
     <row r="391">
@@ -23516,13 +23516,13 @@
       </c>
       <c r="N391" t="inlineStr"/>
       <c r="O391" t="n">
-        <v>0.01627557686398872</v>
+        <v>0.01901916891150497</v>
       </c>
       <c r="P391" t="n">
         <v>0.0339</v>
       </c>
       <c r="Q391" t="n">
-        <v>0.00904922073637773</v>
+        <v>0.01057465791479677</v>
       </c>
     </row>
     <row r="392">
@@ -23575,13 +23575,13 @@
       </c>
       <c r="N392" t="inlineStr"/>
       <c r="O392" t="n">
-        <v>0.008261617485302505</v>
+        <v>0.01069207329638492</v>
       </c>
       <c r="P392" t="n">
         <v>0.0514</v>
       </c>
       <c r="Q392" t="n">
-        <v>0.000309810655698844</v>
+        <v>0.0004009527486144346</v>
       </c>
     </row>
     <row r="393">
@@ -23634,13 +23634,13 @@
       </c>
       <c r="N393" t="inlineStr"/>
       <c r="O393" t="n">
-        <v>0.006298062416580111</v>
+        <v>0.008757736456304076</v>
       </c>
       <c r="P393" t="n">
         <v>0.0755</v>
       </c>
       <c r="Q393" t="n">
-        <v>0.0003243502144538757</v>
+        <v>0.0004510234274996599</v>
       </c>
     </row>
     <row r="394">
@@ -23693,13 +23693,13 @@
       </c>
       <c r="N394" t="inlineStr"/>
       <c r="O394" t="n">
-        <v>0.04455007676152016</v>
+        <v>0.04414509814701909</v>
       </c>
       <c r="P394" t="n">
         <v>0.0146</v>
       </c>
       <c r="Q394" t="n">
-        <v>0.00824176420088123</v>
+        <v>0.00816684315719853</v>
       </c>
     </row>
     <row r="395">
@@ -23752,13 +23752,13 @@
       </c>
       <c r="N395" t="inlineStr"/>
       <c r="O395" t="n">
-        <v>0.03049000938440807</v>
+        <v>0.03229004683644765</v>
       </c>
       <c r="P395" t="n">
         <v>0.0222</v>
       </c>
       <c r="Q395" t="n">
-        <v>0.001567186482358575</v>
+        <v>0.001659708407393409</v>
       </c>
     </row>
     <row r="396">
@@ -23811,13 +23811,13 @@
       </c>
       <c r="N396" t="inlineStr"/>
       <c r="O396" t="n">
-        <v>0.01507191404407871</v>
+        <v>0.01808179249822519</v>
       </c>
       <c r="P396" t="n">
         <v>0.0326</v>
       </c>
       <c r="Q396" t="n">
-        <v>0.0039639133935927</v>
+        <v>0.004755511427033226</v>
       </c>
     </row>
     <row r="397">
@@ -23870,13 +23870,13 @@
       </c>
       <c r="N397" t="inlineStr"/>
       <c r="O397" t="n">
-        <v>0.01132757299407452</v>
+        <v>0.01484394034982752</v>
       </c>
       <c r="P397" t="n">
         <v>0.0456</v>
       </c>
       <c r="Q397" t="n">
-        <v>0.003953322974932006</v>
+        <v>0.005180535182089806</v>
       </c>
     </row>
     <row r="398">
@@ -23929,13 +23929,13 @@
       </c>
       <c r="N398" t="inlineStr"/>
       <c r="O398" t="n">
-        <v>0.09603582807320642</v>
+        <v>0.07625524387535776</v>
       </c>
       <c r="P398" t="n">
         <v>0.0174</v>
       </c>
       <c r="Q398" t="n">
-        <v>0.005051484556650658</v>
+        <v>0.004011025827843818</v>
       </c>
     </row>
     <row r="399">
@@ -23988,13 +23988,13 @@
       </c>
       <c r="N399" t="inlineStr"/>
       <c r="O399" t="n">
-        <v>0.06517453927176203</v>
+        <v>0.05872540659960088</v>
       </c>
       <c r="P399" t="n">
         <v>0.0245</v>
       </c>
       <c r="Q399" t="n">
-        <v>0.024375277687639</v>
+        <v>0.02196330206825073</v>
       </c>
     </row>
     <row r="400">
@@ -24047,13 +24047,13 @@
       </c>
       <c r="N400" t="inlineStr"/>
       <c r="O400" t="n">
-        <v>0.03130081006241422</v>
+        <v>0.03279359633295525</v>
       </c>
       <c r="P400" t="n">
         <v>0.0346</v>
       </c>
       <c r="Q400" t="n">
-        <v>0.0123325191645912</v>
+        <v>0.01292067695518437</v>
       </c>
     </row>
     <row r="401">
@@ -24106,13 +24106,13 @@
       </c>
       <c r="N401" t="inlineStr"/>
       <c r="O401" t="n">
-        <v>0.02260587183121494</v>
+        <v>0.02676916185030467</v>
       </c>
       <c r="P401" t="n">
         <v>0.0497</v>
       </c>
       <c r="Q401" t="n">
-        <v>0.01320182914942952</v>
+        <v>0.01563319052057793</v>
       </c>
     </row>
     <row r="402">
@@ -24165,13 +24165,13 @@
       </c>
       <c r="N402" t="inlineStr"/>
       <c r="O402" t="n">
-        <v>0.2352426659176791</v>
+        <v>0.1450302653872347</v>
       </c>
       <c r="P402" t="n">
         <v>0.0236</v>
       </c>
       <c r="Q402" t="n">
-        <v>0.04963620250863029</v>
+        <v>0.03060138599670653</v>
       </c>
     </row>
     <row r="403">
@@ -24224,13 +24224,13 @@
       </c>
       <c r="N403" t="inlineStr"/>
       <c r="O403" t="n">
-        <v>0.1527127264974944</v>
+        <v>0.1145143027190889</v>
       </c>
       <c r="P403" t="n">
         <v>0.0326</v>
       </c>
       <c r="Q403" t="n">
-        <v>0.04413397795777588</v>
+        <v>0.03309463348581669</v>
       </c>
     </row>
     <row r="404">
@@ -24283,13 +24283,13 @@
       </c>
       <c r="N404" t="inlineStr"/>
       <c r="O404" t="n">
-        <v>0.06675041989960026</v>
+        <v>0.06040535826040397</v>
       </c>
       <c r="P404" t="n">
         <v>0.0445</v>
       </c>
       <c r="Q404" t="n">
-        <v>0.007743048708353631</v>
+        <v>0.007007021558206861</v>
       </c>
     </row>
     <row r="405">
@@ -24342,13 +24342,13 @@
       </c>
       <c r="N405" t="inlineStr"/>
       <c r="O405" t="n">
-        <v>0.04465368886765277</v>
+        <v>0.04719064450685117</v>
       </c>
       <c r="P405" t="n">
         <v>0.06419999999999999</v>
       </c>
       <c r="Q405" t="n">
-        <v>0.03585691216072518</v>
+        <v>0.03789408753900149</v>
       </c>
     </row>
     <row r="406">
@@ -24401,13 +24401,13 @@
       </c>
       <c r="N406" t="inlineStr"/>
       <c r="O406" t="n">
-        <v>0.04400333681420907</v>
+        <v>0.05419343160606205</v>
       </c>
       <c r="P406" t="n">
         <v>0.0133</v>
       </c>
       <c r="Q406" t="n">
-        <v>0.003458662273596833</v>
+        <v>0.004259603724236478</v>
       </c>
     </row>
     <row r="407">
@@ -24460,13 +24460,13 @@
       </c>
       <c r="N407" t="inlineStr"/>
       <c r="O407" t="n">
-        <v>0.03009136227817734</v>
+        <v>0.03717325946111945</v>
       </c>
       <c r="P407" t="n">
         <v>0.0199</v>
       </c>
       <c r="Q407" t="n">
-        <v>0.006981196048537143</v>
+        <v>0.008624196194979712</v>
       </c>
     </row>
     <row r="408">
@@ -24519,13 +24519,13 @@
       </c>
       <c r="N408" t="inlineStr"/>
       <c r="O408" t="n">
-        <v>0.01505673880079439</v>
+        <v>0.0208239704842765</v>
       </c>
       <c r="P408" t="n">
         <v>0.029</v>
       </c>
       <c r="Q408" t="n">
-        <v>0.01565900835282617</v>
+        <v>0.02165692930364756</v>
       </c>
     </row>
     <row r="409">
@@ -24578,13 +24578,13 @@
       </c>
       <c r="N409" t="inlineStr"/>
       <c r="O409" t="n">
-        <v>0.01156874032090102</v>
+        <v>0.01749216462968677</v>
       </c>
       <c r="P409" t="n">
         <v>0.0415</v>
       </c>
       <c r="Q409" t="n">
-        <v>0.008456749174578644</v>
+        <v>0.01278677234430103</v>
       </c>
     </row>
     <row r="410">
@@ -24637,13 +24637,13 @@
       </c>
       <c r="N410" t="inlineStr"/>
       <c r="O410" t="n">
-        <v>0.08162051612253243</v>
+        <v>0.08684909437964819</v>
       </c>
       <c r="P410" t="n">
         <v>0.00902</v>
       </c>
       <c r="Q410" t="n">
-        <v>0.0006031756141455147</v>
+        <v>0.0006418148074656001</v>
       </c>
     </row>
     <row r="411">
@@ -24696,13 +24696,13 @@
       </c>
       <c r="N411" t="inlineStr"/>
       <c r="O411" t="n">
-        <v>0.0560839832470794</v>
+        <v>0.06287586300026539</v>
       </c>
       <c r="P411" t="n">
         <v>0.0133</v>
       </c>
       <c r="Q411" t="n">
-        <v>0.002720073187483351</v>
+        <v>0.003049479355512872</v>
       </c>
     </row>
     <row r="412">
@@ -24755,13 +24755,13 @@
       </c>
       <c r="N412" t="inlineStr"/>
       <c r="O412" t="n">
-        <v>0.02770219849152432</v>
+        <v>0.03545502850765114</v>
       </c>
       <c r="P412" t="n">
         <v>0.0186</v>
       </c>
       <c r="Q412" t="n">
-        <v>0.004626267148084562</v>
+        <v>0.00592098976077774</v>
       </c>
     </row>
     <row r="413">
@@ -24814,13 +24814,13 @@
       </c>
       <c r="N413" t="inlineStr"/>
       <c r="O413" t="n">
-        <v>0.02086744091604271</v>
+        <v>0.02975618040621177</v>
       </c>
       <c r="P413" t="n">
         <v>0.0266</v>
       </c>
       <c r="Q413" t="n">
-        <v>0.003317923105650792</v>
+        <v>0.004731232684587671</v>
       </c>
     </row>
     <row r="414">
@@ -24873,13 +24873,13 @@
       </c>
       <c r="N414" t="inlineStr"/>
       <c r="O414" t="n">
-        <v>0.1734632173373947</v>
+        <v>0.1479472233005034</v>
       </c>
       <c r="P414" t="n">
         <v>0.0109</v>
       </c>
       <c r="Q414" t="n">
-        <v>0.01514333887355456</v>
+        <v>0.01291579259413395</v>
       </c>
     </row>
     <row r="415">
@@ -24932,13 +24932,13 @@
       </c>
       <c r="N415" t="inlineStr"/>
       <c r="O415" t="n">
-        <v>0.1172146751898278</v>
+        <v>0.1125205395978724</v>
       </c>
       <c r="P415" t="n">
         <v>0.0151</v>
       </c>
       <c r="Q415" t="n">
-        <v>0.008591835691414378</v>
+        <v>0.008247755552524046</v>
       </c>
     </row>
     <row r="416">
@@ -24991,13 +24991,13 @@
       </c>
       <c r="N416" t="inlineStr"/>
       <c r="O416" t="n">
-        <v>0.05627147270265469</v>
+        <v>0.06320881764213802</v>
       </c>
       <c r="P416" t="n">
         <v>0.021</v>
       </c>
       <c r="Q416" t="n">
-        <v>0.003393169803970078</v>
+        <v>0.003811491703820923</v>
       </c>
     </row>
     <row r="417">
@@ -25050,13 +25050,13 @@
       </c>
       <c r="N417" t="inlineStr"/>
       <c r="O417" t="n">
-        <v>0.04078825819319869</v>
+        <v>0.05251343054093718</v>
       </c>
       <c r="P417" t="n">
         <v>0.0287</v>
       </c>
       <c r="Q417" t="n">
-        <v>0.002398349581760083</v>
+        <v>0.003087789715807106</v>
       </c>
     </row>
     <row r="418">
@@ -25109,13 +25109,13 @@
       </c>
       <c r="N418" t="inlineStr"/>
       <c r="O418" t="n">
-        <v>0.4193267644947553</v>
+        <v>0.2793027081786034</v>
       </c>
       <c r="P418" t="n">
         <v>0.0148</v>
       </c>
       <c r="Q418" t="n">
-        <v>0.0399199079799007</v>
+        <v>0.02658961781860304</v>
       </c>
     </row>
     <row r="419">
@@ -25168,13 +25168,13 @@
       </c>
       <c r="N419" t="inlineStr"/>
       <c r="O419" t="n">
-        <v>0.2703673638986711</v>
+        <v>0.2180979585814798</v>
       </c>
       <c r="P419" t="n">
         <v>0.0202</v>
       </c>
       <c r="Q419" t="n">
-        <v>0.002290011572221744</v>
+        <v>0.001847289709185134</v>
       </c>
     </row>
     <row r="420">
@@ -25227,13 +25227,13 @@
       </c>
       <c r="N420" t="inlineStr"/>
       <c r="O420" t="n">
-        <v>0.1192055812489976</v>
+        <v>0.1157834405294757</v>
       </c>
       <c r="P420" t="n">
         <v>0.0271</v>
       </c>
       <c r="Q420" t="n">
-        <v>0.01800004276859863</v>
+        <v>0.01748329951995083</v>
       </c>
     </row>
     <row r="421">
@@ -25286,13 +25286,13 @@
       </c>
       <c r="N421" t="inlineStr"/>
       <c r="O421" t="n">
-        <v>0.07971574701877629</v>
+        <v>0.09152738075296332</v>
       </c>
       <c r="P421" t="n">
         <v>0.0365</v>
       </c>
       <c r="Q421" t="n">
-        <v>0.01028333136542214</v>
+        <v>0.01180703211713227</v>
       </c>
     </row>
     <row r="422">
@@ -25345,13 +25345,13 @@
       </c>
       <c r="N422" t="inlineStr"/>
       <c r="O422" t="n">
-        <v>0.09463694103840128</v>
+        <v>0.1263247489885763</v>
       </c>
       <c r="P422" t="n">
         <v>0.0325</v>
       </c>
       <c r="Q422" t="n">
-        <v>0.1911666208975706</v>
+        <v>0.2551759929569242</v>
       </c>
     </row>
     <row r="423">
@@ -25404,13 +25404,13 @@
       </c>
       <c r="N423" t="inlineStr"/>
       <c r="O423" t="n">
-        <v>0.06368097870629895</v>
+        <v>0.08363179735220441</v>
       </c>
       <c r="P423" t="n">
         <v>0.0486</v>
       </c>
       <c r="Q423" t="n">
-        <v>0.01617496859139993</v>
+        <v>0.02124247652745992</v>
       </c>
     </row>
     <row r="424">
@@ -25463,13 +25463,13 @@
       </c>
       <c r="N424" t="inlineStr"/>
       <c r="O424" t="n">
-        <v>0.03393171816420067</v>
+        <v>0.05009780154670346</v>
       </c>
       <c r="P424" t="n">
         <v>0.0706</v>
       </c>
       <c r="Q424" t="n">
-        <v>0.01604970269166691</v>
+        <v>0.02369626013159074</v>
       </c>
     </row>
     <row r="425">
@@ -25522,13 +25522,13 @@
       </c>
       <c r="N425" t="inlineStr"/>
       <c r="O425" t="n">
-        <v>0.02771314637997317</v>
+        <v>0.04576721985802999</v>
       </c>
       <c r="P425" t="n">
         <v>0.101</v>
       </c>
       <c r="Q425" t="n">
-        <v>0.009671888086610634</v>
+        <v>0.01597275973045247</v>
       </c>
     </row>
     <row r="426">
@@ -25581,13 +25581,13 @@
       </c>
       <c r="N426" t="inlineStr"/>
       <c r="O426" t="n">
-        <v>0.1665084423638514</v>
+        <v>0.1921666467201572</v>
       </c>
       <c r="P426" t="n">
         <v>0.022</v>
       </c>
       <c r="Q426" t="n">
-        <v>0.05977653080862264</v>
+        <v>0.06898782617253643</v>
       </c>
     </row>
     <row r="427">
@@ -25640,13 +25640,13 @@
       </c>
       <c r="N427" t="inlineStr"/>
       <c r="O427" t="n">
-        <v>0.1140447006893949</v>
+        <v>0.1365938742752947</v>
       </c>
       <c r="P427" t="n">
         <v>0.0318</v>
       </c>
       <c r="Q427" t="n">
-        <v>0.03352914200268211</v>
+        <v>0.04015859903693663</v>
       </c>
     </row>
     <row r="428">
@@ -25699,13 +25699,13 @@
       </c>
       <c r="N428" t="inlineStr"/>
       <c r="O428" t="n">
-        <v>0.06006773776109289</v>
+        <v>0.08234525337687085</v>
       </c>
       <c r="P428" t="n">
         <v>0.0445</v>
       </c>
       <c r="Q428" t="n">
-        <v>0.02330628225130404</v>
+        <v>0.03194995831022589</v>
       </c>
     </row>
     <row r="429">
@@ -25758,13 +25758,13 @@
       </c>
       <c r="N429" t="inlineStr"/>
       <c r="O429" t="n">
-        <v>0.04663582479014009</v>
+        <v>0.07249446534711168</v>
       </c>
       <c r="P429" t="n">
         <v>0.061</v>
       </c>
       <c r="Q429" t="n">
-        <v>0.05969385573137932</v>
+        <v>0.09279291564430295</v>
       </c>
     </row>
     <row r="430">
@@ -25817,13 +25817,13 @@
       </c>
       <c r="N430" t="inlineStr"/>
       <c r="O430" t="n">
-        <v>0.3214832288712254</v>
+        <v>0.3051239611520911</v>
       </c>
       <c r="P430" t="n">
         <v>0.0276</v>
       </c>
       <c r="Q430" t="n">
-        <v>0.03697057132019092</v>
+        <v>0.03508925553249048</v>
       </c>
     </row>
     <row r="431">
@@ -25876,13 +25876,13 @@
       </c>
       <c r="N431" t="inlineStr"/>
       <c r="O431" t="n">
-        <v>0.2229089117504194</v>
+        <v>0.232974167570571</v>
       </c>
       <c r="P431" t="n">
         <v>0.0382</v>
       </c>
       <c r="Q431" t="n">
-        <v>0.1228228103744811</v>
+        <v>0.1283687663313847</v>
       </c>
     </row>
     <row r="432">
@@ -25935,13 +25935,13 @@
       </c>
       <c r="N432" t="inlineStr"/>
       <c r="O432" t="n">
-        <v>0.1135610846063905</v>
+        <v>0.1382796197534776</v>
       </c>
       <c r="P432" t="n">
         <v>0.0543</v>
       </c>
       <c r="Q432" t="n">
-        <v>0.02328002234431006</v>
+        <v>0.02834732204946291</v>
       </c>
     </row>
     <row r="433">
@@ -25994,13 +25994,13 @@
       </c>
       <c r="N433" t="inlineStr"/>
       <c r="O433" t="n">
-        <v>0.08667903916592543</v>
+        <v>0.1215405456513624</v>
       </c>
       <c r="P433" t="n">
         <v>0.07240000000000001</v>
       </c>
       <c r="Q433" t="n">
-        <v>0.03189788641306056</v>
+        <v>0.04472692079970136</v>
       </c>
     </row>
     <row r="434">
@@ -26053,13 +26053,13 @@
       </c>
       <c r="N434" t="inlineStr"/>
       <c r="O434" t="n">
-        <v>0.6920830599592729</v>
+        <v>0.5494447631594089</v>
       </c>
       <c r="P434" t="n">
         <v>0.0399</v>
       </c>
       <c r="Q434" t="n">
-        <v>0.2429211540457048</v>
+        <v>0.1928551118689525</v>
       </c>
     </row>
     <row r="435">
@@ -26112,13 +26112,13 @@
       </c>
       <c r="N435" t="inlineStr"/>
       <c r="O435" t="n">
-        <v>0.4562748189711708</v>
+        <v>0.4221638701012324</v>
       </c>
       <c r="P435" t="n">
         <v>0.0537</v>
       </c>
       <c r="Q435" t="n">
-        <v>0.1136124299238215</v>
+        <v>0.1051188036552069</v>
       </c>
     </row>
     <row r="436">
@@ -26171,13 +26171,13 @@
       </c>
       <c r="N436" t="inlineStr"/>
       <c r="O436" t="n">
-        <v>0.2191262807154634</v>
+        <v>0.2392151934465729</v>
       </c>
       <c r="P436" t="n">
         <v>0.0723</v>
       </c>
       <c r="Q436" t="n">
-        <v>0.0460165189502473</v>
+        <v>0.05023519062378031</v>
       </c>
     </row>
     <row r="437">
@@ -26230,13 +26230,13 @@
       </c>
       <c r="N437" t="inlineStr"/>
       <c r="O437" t="n">
-        <v>0.1598073068635139</v>
+        <v>0.2017635199459438</v>
       </c>
       <c r="P437" t="n">
         <v>0.0953</v>
       </c>
       <c r="Q437" t="n">
-        <v>0.1337587158447611</v>
+        <v>0.1688760661947549</v>
       </c>
     </row>
     <row r="438">
@@ -26289,13 +26289,13 @@
       </c>
       <c r="N438" t="inlineStr"/>
       <c r="O438" t="n">
-        <v>0.07059075486359499</v>
+        <v>0.0922738418029712</v>
       </c>
       <c r="P438" t="n">
         <v>0.401</v>
       </c>
       <c r="Q438" t="n">
-        <v>0.02160077098826007</v>
+        <v>0.02823579559170919</v>
       </c>
     </row>
     <row r="439">
@@ -26348,13 +26348,13 @@
       </c>
       <c r="N439" t="inlineStr"/>
       <c r="O439" t="n">
-        <v>0.1260138064697462</v>
+        <v>0.141836783637305</v>
       </c>
       <c r="P439" t="n">
         <v>0.296</v>
       </c>
       <c r="Q439" t="n">
-        <v>0.08153093278592578</v>
+        <v>0.09176839901333635</v>
       </c>
     </row>
     <row r="440">
@@ -26407,13 +26407,13 @@
       </c>
       <c r="N440" t="inlineStr"/>
       <c r="O440" t="n">
-        <v>0.09233982275399231</v>
+        <v>0.1075096276081372</v>
       </c>
       <c r="P440" t="n">
         <v>0.312</v>
       </c>
       <c r="Q440" t="n">
-        <v>0.07082464405231211</v>
+        <v>0.08245988437544126</v>
       </c>
     </row>
     <row r="441">
@@ -26466,13 +26466,13 @@
       </c>
       <c r="N441" t="inlineStr"/>
       <c r="O441" t="n">
-        <v>0.2605962519865318</v>
+        <v>0.2365692338806464</v>
       </c>
       <c r="P441" t="n">
         <v>0.292</v>
       </c>
       <c r="Q441" t="n">
-        <v>0.06176131172080803</v>
+        <v>0.0560669084297132</v>
       </c>
     </row>
     <row r="442">
@@ -26525,13 +26525,13 @@
       </c>
       <c r="N442" t="inlineStr"/>
       <c r="O442" t="n">
-        <v>0.159878363856192</v>
+        <v>0.1655481886838445</v>
       </c>
       <c r="P442" t="n">
         <v>0.443</v>
       </c>
       <c r="Q442" t="n">
-        <v>0.1067987470559362</v>
+        <v>0.1105861900408081</v>
       </c>
     </row>
     <row r="443">
@@ -26584,13 +26584,13 @@
       </c>
       <c r="N443" t="inlineStr"/>
       <c r="O443" t="n">
-        <v>0.5865960877057507</v>
+        <v>0.4418503598265442</v>
       </c>
       <c r="P443" t="n">
         <v>0.447</v>
       </c>
       <c r="Q443" t="n">
-        <v>0.2721805846954683</v>
+        <v>0.2050185669595165</v>
       </c>
     </row>
     <row r="444">
@@ -26643,13 +26643,13 @@
       </c>
       <c r="N444" t="inlineStr"/>
       <c r="O444" t="n">
-        <v>0.1184913828286241</v>
+        <v>0.1540676304256743</v>
       </c>
       <c r="P444" t="n">
         <v>0.15</v>
       </c>
       <c r="Q444" t="n">
-        <v>0.04585616515467751</v>
+        <v>0.05962417297473597</v>
       </c>
     </row>
     <row r="445">
@@ -26702,13 +26702,13 @@
       </c>
       <c r="N445" t="inlineStr"/>
       <c r="O445" t="n">
-        <v>0.07512928957588431</v>
+        <v>0.09671537364338295</v>
       </c>
       <c r="P445" t="n">
         <v>0.285</v>
       </c>
       <c r="Q445" t="n">
-        <v>0.04184701429376757</v>
+        <v>0.05387046311936431</v>
       </c>
     </row>
     <row r="446">
@@ -26761,13 +26761,13 @@
       </c>
       <c r="N446" t="inlineStr"/>
       <c r="O446" t="n">
-        <v>0.04011141065403284</v>
+        <v>0.05863314160768701</v>
       </c>
       <c r="P446" t="n">
         <v>0.342</v>
       </c>
       <c r="Q446" t="n">
-        <v>0.2406684639241971</v>
+        <v>0.3517988496461221</v>
       </c>
     </row>
     <row r="447">
@@ -26820,13 +26820,13 @@
       </c>
       <c r="N447" t="inlineStr"/>
       <c r="O447" t="n">
-        <v>0.1932909803954244</v>
+        <v>0.219693106107417</v>
       </c>
       <c r="P447" t="n">
         <v>0.099</v>
       </c>
       <c r="Q447" t="n">
-        <v>0.09181321568782658</v>
+        <v>0.1043542254010231</v>
       </c>
     </row>
     <row r="448">
@@ -26879,13 +26879,13 @@
       </c>
       <c r="N448" t="inlineStr"/>
       <c r="O448" t="n">
-        <v>0.1349263718800711</v>
+        <v>0.1582741483927669</v>
       </c>
       <c r="P448" t="n">
         <v>0.163</v>
       </c>
       <c r="Q448" t="n">
-        <v>0.0104298085463295</v>
+        <v>0.01223459167076088</v>
       </c>
     </row>
     <row r="449">
@@ -26938,13 +26938,13 @@
       </c>
       <c r="N449" t="inlineStr"/>
       <c r="O449" t="n">
-        <v>0.07098346035339587</v>
+        <v>0.09598652740101851</v>
       </c>
       <c r="P449" t="n">
         <v>0.247</v>
       </c>
       <c r="Q449" t="n">
-        <v>0.0702736257498619</v>
+        <v>0.09502666212700833</v>
       </c>
     </row>
     <row r="450">
@@ -26997,13 +26997,13 @@
       </c>
       <c r="N450" t="inlineStr"/>
       <c r="O450" t="n">
-        <v>0.06878357655270997</v>
+        <v>0.1041027309069149</v>
       </c>
       <c r="P450" t="n">
         <v>0.365</v>
       </c>
       <c r="Q450" t="n">
-        <v>0.2104777442512925</v>
+        <v>0.3185543565751595</v>
       </c>
     </row>
     <row r="451">
@@ -27056,13 +27056,13 @@
       </c>
       <c r="N451" t="inlineStr"/>
       <c r="O451" t="n">
-        <v>0.3702840497704936</v>
+        <v>0.3493825197337769</v>
       </c>
       <c r="P451" t="n">
         <v>0.134</v>
       </c>
       <c r="Q451" t="n">
-        <v>0.145521631559804</v>
+        <v>0.1373073302553743</v>
       </c>
     </row>
     <row r="452">
@@ -27115,13 +27115,13 @@
       </c>
       <c r="N452" t="inlineStr"/>
       <c r="O452" t="n">
-        <v>0.2693826906584346</v>
+        <v>0.2766299664276582</v>
       </c>
       <c r="P452" t="n">
         <v>0.185</v>
       </c>
       <c r="Q452" t="n">
-        <v>3.313407095098746</v>
+        <v>3.402548587060196</v>
       </c>
     </row>
     <row r="453">
@@ -27174,13 +27174,13 @@
       </c>
       <c r="N453" t="inlineStr"/>
       <c r="O453" t="n">
-        <v>0.1523049811555647</v>
+        <v>0.1799340033799869</v>
       </c>
       <c r="P453" t="n">
         <v>0.27</v>
       </c>
       <c r="Q453" t="n">
-        <v>0.2711028664569051</v>
+        <v>0.3202825260163767</v>
       </c>
     </row>
     <row r="454">
@@ -27233,13 +27233,13 @@
       </c>
       <c r="N454" t="inlineStr"/>
       <c r="O454" t="n">
-        <v>0.100227867856746</v>
+        <v>0.1397225241021636</v>
       </c>
       <c r="P454" t="n">
         <v>0.386</v>
       </c>
       <c r="Q454" t="n">
-        <v>0.05502509945335354</v>
+        <v>0.07670766573208784</v>
       </c>
     </row>
     <row r="455">
@@ -27292,13 +27292,13 @@
       </c>
       <c r="N455" t="inlineStr"/>
       <c r="O455" t="n">
-        <v>0.765688924853039</v>
+        <v>0.6138088851152457</v>
       </c>
       <c r="P455" t="n">
         <v>0.197</v>
       </c>
       <c r="Q455" t="n">
-        <v>0.01837653419647294</v>
+        <v>0.0147314132427659</v>
       </c>
     </row>
     <row r="456">
@@ -27351,13 +27351,13 @@
       </c>
       <c r="N456" t="inlineStr"/>
       <c r="O456" t="n">
-        <v>0.5407223690304372</v>
+        <v>0.50564314729797</v>
       </c>
       <c r="P456" t="n">
         <v>0.231</v>
       </c>
       <c r="Q456" t="n">
-        <v>3.812092701664583</v>
+        <v>3.564784188450688</v>
       </c>
     </row>
     <row r="457">
@@ -27410,13 +27410,13 @@
       </c>
       <c r="N457" t="inlineStr"/>
       <c r="O457" t="n">
-        <v>0.2619878773955345</v>
+        <v>0.2855326919607294</v>
       </c>
       <c r="P457" t="n">
         <v>0.363</v>
       </c>
       <c r="Q457" t="n">
-        <v>0.01037471994486317</v>
+        <v>0.01130709460164489</v>
       </c>
     </row>
     <row r="458">
@@ -27469,13 +27469,13 @@
       </c>
       <c r="N458" t="inlineStr"/>
       <c r="O458" t="n">
-        <v>0.1596794317069685</v>
+        <v>0.2037708423974942</v>
       </c>
       <c r="P458" t="n">
         <v>0.503</v>
       </c>
       <c r="Q458" t="n">
-        <v>0.1499389863728434</v>
+        <v>0.191340821011247</v>
       </c>
     </row>
   </sheetData>
